--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_yyn_pf_sc_results_bus.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_yyn_pf_sc_results_bus.xlsx
@@ -23,22 +23,22 @@
     <sheet name="LL_min_10" sheetId="14" r:id="rId14"/>
     <sheet name="LL_min_fault_6" sheetId="15" r:id="rId15"/>
     <sheet name="LL_min_fault_10" sheetId="16" r:id="rId16"/>
-    <sheet name="LLG_max_6" sheetId="17" r:id="rId17"/>
-    <sheet name="LLG_max_10" sheetId="18" r:id="rId18"/>
-    <sheet name="LLG_max_fault_6" sheetId="19" r:id="rId19"/>
-    <sheet name="LLG_max_fault_10" sheetId="20" r:id="rId20"/>
-    <sheet name="LLG_min_6" sheetId="21" r:id="rId21"/>
-    <sheet name="LLG_min_10" sheetId="22" r:id="rId22"/>
-    <sheet name="LLG_min_fault_6" sheetId="23" r:id="rId23"/>
-    <sheet name="LLG_min_fault_10" sheetId="24" r:id="rId24"/>
-    <sheet name="LG_max_6" sheetId="25" r:id="rId25"/>
-    <sheet name="LG_max_10" sheetId="26" r:id="rId26"/>
-    <sheet name="LG_max_fault_6" sheetId="27" r:id="rId27"/>
-    <sheet name="LG_max_fault_10" sheetId="28" r:id="rId28"/>
-    <sheet name="LG_min_6" sheetId="29" r:id="rId29"/>
-    <sheet name="LG_min_10" sheetId="30" r:id="rId30"/>
-    <sheet name="LG_min_fault_6" sheetId="31" r:id="rId31"/>
-    <sheet name="LG_min_fault_10" sheetId="32" r:id="rId32"/>
+    <sheet name="LG_max_6" sheetId="17" r:id="rId17"/>
+    <sheet name="LG_max_10" sheetId="18" r:id="rId18"/>
+    <sheet name="LG_max_fault_6" sheetId="19" r:id="rId19"/>
+    <sheet name="LG_max_fault_10" sheetId="20" r:id="rId20"/>
+    <sheet name="LG_min_6" sheetId="21" r:id="rId21"/>
+    <sheet name="LG_min_10" sheetId="22" r:id="rId22"/>
+    <sheet name="LG_min_fault_6" sheetId="23" r:id="rId23"/>
+    <sheet name="LG_min_fault_10" sheetId="24" r:id="rId24"/>
+    <sheet name="LLG_max_6" sheetId="25" r:id="rId25"/>
+    <sheet name="LLG_max_10" sheetId="26" r:id="rId26"/>
+    <sheet name="LLG_max_fault_6" sheetId="27" r:id="rId27"/>
+    <sheet name="LLG_max_fault_10" sheetId="28" r:id="rId28"/>
+    <sheet name="LLG_min_6" sheetId="29" r:id="rId29"/>
+    <sheet name="LLG_min_10" sheetId="30" r:id="rId30"/>
+    <sheet name="LLG_min_fault_6" sheetId="31" r:id="rId31"/>
+    <sheet name="LLG_min_fault_10" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3282,58 +3282,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.248639108526411</v>
       </c>
       <c r="C2">
-        <v>5.24863910873685</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.248639107970815</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>333.3333522405613</v>
       </c>
       <c r="F2">
-        <v>333.333352253926</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>333.3333522052762</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.243944534971</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.32439447418605</v>
+        <v>1.324394473163435</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104235</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853098347083</v>
+        <v>0.6350853098740159</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.635085309850708</v>
+        <v>0.6350853099409387</v>
       </c>
       <c r="Q2">
-        <v>-4.877403765969958E-09</v>
+        <v>59.99999999685332</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>179.999999996043</v>
+        <v>119.9999999996536</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3341,58 +3341,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.6628240872351328</v>
       </c>
       <c r="C3">
-        <v>4.755252724976655</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.771153425147081</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.653633303811437</v>
       </c>
       <c r="F3">
-        <v>54.90892881659948</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>55.09253428707345</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02718770036915611</v>
+        <v>0.02718770036919746</v>
       </c>
       <c r="I3">
-        <v>52.87164768924225</v>
+        <v>52.8716476892421</v>
       </c>
       <c r="J3">
-        <v>0.1077319054036947</v>
+        <v>0.1077319053236429</v>
       </c>
       <c r="K3">
-        <v>2.308438694626096</v>
+        <v>2.308438694643186</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135233</v>
+        <v>0.1077319054125093</v>
       </c>
       <c r="M3">
-        <v>2.308438694642237</v>
+        <v>2.30843869464287</v>
       </c>
       <c r="N3">
-        <v>0.9322749059328834</v>
+        <v>1.036170808042147</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.100000023842439</v>
       </c>
       <c r="P3">
-        <v>0.9322749059338886</v>
+        <v>1.032717588269755</v>
       </c>
       <c r="Q3">
-        <v>0.05649667791871166</v>
+        <v>32.27168657246929</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999774</v>
       </c>
       <c r="S3">
-        <v>-179.9435033220763</v>
+        <v>148.0329896420457</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3400,58 +3400,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.6287218226864537</v>
       </c>
       <c r="C4">
-        <v>3.690912397743493</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.735009540497535</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7.259854271468325</v>
       </c>
       <c r="F4">
-        <v>42.61898532785066</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>43.12817527264145</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.329027417091045</v>
+        <v>4.329027417091137</v>
       </c>
       <c r="I4">
-        <v>54.55256884783186</v>
+        <v>54.55256884783171</v>
       </c>
       <c r="J4">
-        <v>0.6277319163543693</v>
+        <v>0.6277319162744488</v>
       </c>
       <c r="K4">
-        <v>2.898438697943179</v>
+        <v>2.898438697960259</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642021</v>
+        <v>0.6277319163633277</v>
       </c>
       <c r="M4">
-        <v>2.898438697959381</v>
+        <v>2.898438697960005</v>
       </c>
       <c r="N4">
-        <v>0.9277102131239966</v>
+        <v>1.027008523323554</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.100000023842549</v>
       </c>
       <c r="P4">
-        <v>0.9277102131260881</v>
+        <v>1.014883215215973</v>
       </c>
       <c r="Q4">
-        <v>0.2021272668917655</v>
+        <v>33.1268115785238</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999767</v>
       </c>
       <c r="S4">
-        <v>-179.7978727330858</v>
+        <v>147.9374049578646</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3459,58 +3459,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.6067207606382948</v>
       </c>
       <c r="C5">
-        <v>3.182411750626919</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.234338695016242</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7.005807889549081</v>
       </c>
       <c r="F5">
-        <v>36.7473256179336</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>37.34692632436101</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.973515607416503</v>
+        <v>6.973515607416611</v>
       </c>
       <c r="I5">
-        <v>55.58449235694481</v>
+        <v>55.58449235694468</v>
       </c>
       <c r="J5">
-        <v>0.9743985902508514</v>
+        <v>0.9743985901710175</v>
       </c>
       <c r="K5">
-        <v>3.291772033548036</v>
+        <v>3.291772033565117</v>
       </c>
       <c r="L5">
-        <v>0.974398590260679</v>
+        <v>0.9743985902598882</v>
       </c>
       <c r="M5">
-        <v>3.291772033564278</v>
+        <v>3.291772033564901</v>
       </c>
       <c r="N5">
-        <v>0.92466042172844</v>
+        <v>1.020341888835466</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.1000000238426</v>
       </c>
       <c r="P5">
-        <v>0.9246604217307598</v>
+        <v>1.003960414439509</v>
       </c>
       <c r="Q5">
-        <v>0.2765061667575254</v>
+        <v>33.62863297129313</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999763</v>
       </c>
       <c r="S5">
-        <v>-179.7234938332161</v>
+        <v>147.8040385391567</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3518,58 +3518,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.6067207606382952</v>
       </c>
       <c r="C6">
-        <v>3.182411750626922</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3.234338695016245</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7.005807889549085</v>
       </c>
       <c r="F6">
-        <v>36.74732561793363</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>37.34692632436104</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.973515607416514</v>
+        <v>6.973515607416626</v>
       </c>
       <c r="I6">
-        <v>55.58449235694481</v>
+        <v>55.58449235694467</v>
       </c>
       <c r="J6">
-        <v>0.9743985902508525</v>
+        <v>0.9743985901710196</v>
       </c>
       <c r="K6">
-        <v>3.291772033548037</v>
+        <v>3.291772033565107</v>
       </c>
       <c r="L6">
-        <v>0.9743985902606839</v>
+        <v>0.9743985902598861</v>
       </c>
       <c r="M6">
-        <v>3.291772033564274</v>
+        <v>3.291772033564892</v>
       </c>
       <c r="N6">
-        <v>0.9246604217284397</v>
+        <v>1.020341888835466</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.1000000238426</v>
       </c>
       <c r="P6">
-        <v>0.9246604217307598</v>
+        <v>1.003960414439509</v>
       </c>
       <c r="Q6">
-        <v>0.2765061667574982</v>
+        <v>33.62863297129312</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999763</v>
       </c>
       <c r="S6">
-        <v>-179.7234938332161</v>
+        <v>147.8040385391567</v>
       </c>
     </row>
   </sheetData>
@@ -3649,58 +3649,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.248639108526411</v>
       </c>
       <c r="C2">
-        <v>5.24863910873685</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.248639107970815</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>333.3333522405613</v>
       </c>
       <c r="F2">
-        <v>333.333352253926</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>333.3333522052762</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.243944534971</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.32439447418605</v>
+        <v>1.324394473163435</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104235</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853098347083</v>
+        <v>0.6350853098740159</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.635085309850708</v>
+        <v>0.6350853099409387</v>
       </c>
       <c r="Q2">
-        <v>-4.877403765969958E-09</v>
+        <v>59.99999999685332</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>179.999999996043</v>
+        <v>119.9999999996536</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3708,58 +3708,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.6628240872351328</v>
       </c>
       <c r="C3">
-        <v>4.755252724976655</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.771153425147081</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.653633303811437</v>
       </c>
       <c r="F3">
-        <v>54.90892881659948</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>55.09253428707345</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02718770036915611</v>
+        <v>0.02718770036919746</v>
       </c>
       <c r="I3">
-        <v>52.87164768924225</v>
+        <v>52.8716476892421</v>
       </c>
       <c r="J3">
-        <v>0.1077319054036947</v>
+        <v>0.1077319053236429</v>
       </c>
       <c r="K3">
-        <v>2.308438694626096</v>
+        <v>2.308438694643186</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135233</v>
+        <v>0.1077319054125093</v>
       </c>
       <c r="M3">
-        <v>2.308438694642237</v>
+        <v>2.30843869464287</v>
       </c>
       <c r="N3">
-        <v>0.9322749059328834</v>
+        <v>1.036170808042147</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.100000023842439</v>
       </c>
       <c r="P3">
-        <v>0.9322749059338886</v>
+        <v>1.032717588269755</v>
       </c>
       <c r="Q3">
-        <v>0.05649667791871166</v>
+        <v>32.27168657246929</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999774</v>
       </c>
       <c r="S3">
-        <v>-179.9435033220763</v>
+        <v>148.0329896420457</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3767,58 +3767,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.6287218226864537</v>
       </c>
       <c r="C4">
-        <v>3.690912397743493</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.735009540497535</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7.259854271468325</v>
       </c>
       <c r="F4">
-        <v>42.61898532785066</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>43.12817527264145</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.329027417091045</v>
+        <v>4.329027417091137</v>
       </c>
       <c r="I4">
-        <v>54.55256884783186</v>
+        <v>54.55256884783171</v>
       </c>
       <c r="J4">
-        <v>0.6277319163543693</v>
+        <v>0.6277319162744488</v>
       </c>
       <c r="K4">
-        <v>2.898438697943179</v>
+        <v>2.898438697960259</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642021</v>
+        <v>0.6277319163633277</v>
       </c>
       <c r="M4">
-        <v>2.898438697959381</v>
+        <v>2.898438697960005</v>
       </c>
       <c r="N4">
-        <v>0.9277102131239966</v>
+        <v>1.027008523323554</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.100000023842549</v>
       </c>
       <c r="P4">
-        <v>0.9277102131260881</v>
+        <v>1.014883215215973</v>
       </c>
       <c r="Q4">
-        <v>0.2021272668917655</v>
+        <v>33.1268115785238</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999767</v>
       </c>
       <c r="S4">
-        <v>-179.7978727330858</v>
+        <v>147.9374049578646</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3826,58 +3826,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.6067207606382948</v>
       </c>
       <c r="C5">
-        <v>3.182411750626919</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.234338695016242</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7.005807889549081</v>
       </c>
       <c r="F5">
-        <v>36.7473256179336</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>37.34692632436101</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.973515607416503</v>
+        <v>6.973515607416611</v>
       </c>
       <c r="I5">
-        <v>55.58449235694481</v>
+        <v>55.58449235694468</v>
       </c>
       <c r="J5">
-        <v>0.9743985902508514</v>
+        <v>0.9743985901710175</v>
       </c>
       <c r="K5">
-        <v>3.291772033548036</v>
+        <v>3.291772033565117</v>
       </c>
       <c r="L5">
-        <v>0.974398590260679</v>
+        <v>0.9743985902598882</v>
       </c>
       <c r="M5">
-        <v>3.291772033564278</v>
+        <v>3.291772033564901</v>
       </c>
       <c r="N5">
-        <v>0.92466042172844</v>
+        <v>1.020341888835466</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.1000000238426</v>
       </c>
       <c r="P5">
-        <v>0.9246604217307598</v>
+        <v>1.003960414439509</v>
       </c>
       <c r="Q5">
-        <v>0.2765061667575254</v>
+        <v>33.62863297129313</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999763</v>
       </c>
       <c r="S5">
-        <v>-179.7234938332161</v>
+        <v>147.8040385391567</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3885,58 +3885,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.6067207606382952</v>
       </c>
       <c r="C6">
-        <v>3.182411750626922</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3.234338695016245</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7.005807889549085</v>
       </c>
       <c r="F6">
-        <v>36.74732561793363</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>37.34692632436104</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.973515607416514</v>
+        <v>6.973515607416626</v>
       </c>
       <c r="I6">
-        <v>55.58449235694481</v>
+        <v>55.58449235694467</v>
       </c>
       <c r="J6">
-        <v>0.9743985902508525</v>
+        <v>0.9743985901710196</v>
       </c>
       <c r="K6">
-        <v>3.291772033548037</v>
+        <v>3.291772033565107</v>
       </c>
       <c r="L6">
-        <v>0.9743985902606839</v>
+        <v>0.9743985902598861</v>
       </c>
       <c r="M6">
-        <v>3.291772033564274</v>
+        <v>3.291772033564892</v>
       </c>
       <c r="N6">
-        <v>0.9246604217284397</v>
+        <v>1.020341888835466</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.1000000238426</v>
       </c>
       <c r="P6">
-        <v>0.9246604217307598</v>
+        <v>1.003960414439509</v>
       </c>
       <c r="Q6">
-        <v>0.2765061667574982</v>
+        <v>33.62863297129312</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999763</v>
       </c>
       <c r="S6">
-        <v>-179.7234938332161</v>
+        <v>147.8040385391567</v>
       </c>
     </row>
   </sheetData>
@@ -4016,58 +4016,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.617960382473001</v>
       </c>
       <c r="C2">
-        <v>3.617960382593723</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.617960382231206</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>229.7713440812008</v>
       </c>
       <c r="F2">
-        <v>229.7713440888676</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>229.7713440658447</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.243944534971</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.32439447418605</v>
+        <v>1.324394473163435</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104235</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.8378427578256962</v>
+        <v>0.6918398877278029</v>
       </c>
       <c r="O2">
-        <v>0.4028253111898906</v>
+        <v>1.100000023874158</v>
       </c>
       <c r="P2">
-        <v>0.6918398877011797</v>
+        <v>0.8378427578966809</v>
       </c>
       <c r="Q2">
-        <v>8.957471693504781</v>
+        <v>40.40951795604942</v>
       </c>
       <c r="R2">
-        <v>-115.8807585964592</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>160.4095179569557</v>
+        <v>128.9574716956184</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4075,58 +4075,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.5144211521721499</v>
       </c>
       <c r="C3">
-        <v>1.169623827333658</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.312688464691717</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5.940023813668565</v>
       </c>
       <c r="F3">
-        <v>13.50565263123376</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.15762076903759</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02718770036915611</v>
+        <v>0.02718770036919746</v>
       </c>
       <c r="I3">
-        <v>52.87164768924225</v>
+        <v>52.8716476892421</v>
       </c>
       <c r="J3">
-        <v>0.1077319054036947</v>
+        <v>0.1077319053236429</v>
       </c>
       <c r="K3">
-        <v>2.308438694626096</v>
+        <v>2.308438694643186</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135233</v>
+        <v>0.1077319054125093</v>
       </c>
       <c r="M3">
-        <v>2.308438694642237</v>
+        <v>2.30843869464287</v>
       </c>
       <c r="N3">
-        <v>1.097956955950057</v>
+        <v>1.044645993620451</v>
       </c>
       <c r="O3">
-        <v>0.8723446855797278</v>
+        <v>1.100000023842566</v>
       </c>
       <c r="P3">
-        <v>0.9608059414399968</v>
+        <v>1.05460862566259</v>
       </c>
       <c r="Q3">
-        <v>22.95039220883865</v>
+        <v>31.15761007791376</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396221</v>
+        <v>-89.99999999999747</v>
       </c>
       <c r="S3">
-        <v>153.3588929335853</v>
+        <v>147.9584136939147</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4134,58 +4134,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4878356558151786</v>
       </c>
       <c r="C4">
-        <v>1.0811063111413</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.203140549618417</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5.633040944103819</v>
       </c>
       <c r="F4">
-        <v>12.48354039520066</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>13.89267040390295</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.329027417091045</v>
+        <v>4.329027417091137</v>
       </c>
       <c r="I4">
-        <v>54.55256884783186</v>
+        <v>54.55256884783171</v>
       </c>
       <c r="J4">
-        <v>0.6277319163543693</v>
+        <v>0.6277319162744488</v>
       </c>
       <c r="K4">
-        <v>2.898438697943179</v>
+        <v>2.898438697960259</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642021</v>
+        <v>0.6277319163633277</v>
       </c>
       <c r="M4">
-        <v>2.898438697959381</v>
+        <v>2.898438697960005</v>
       </c>
       <c r="N4">
-        <v>1.072930679840118</v>
+        <v>1.036031605502453</v>
       </c>
       <c r="O4">
-        <v>0.8020156209370725</v>
+        <v>1.100000023842596</v>
       </c>
       <c r="P4">
-        <v>0.9503466787071521</v>
+        <v>1.040122732411645</v>
       </c>
       <c r="Q4">
-        <v>21.65937363933008</v>
+        <v>31.81277621807776</v>
       </c>
       <c r="R4">
-        <v>-99.52967390015488</v>
+        <v>-89.99999999999739</v>
       </c>
       <c r="S4">
-        <v>155.4443486114421</v>
+        <v>147.8257682689542</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4193,58 +4193,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.4716506383830388</v>
       </c>
       <c r="C5">
-        <v>1.029383669213571</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.139498262840996</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5.446152460678126</v>
       </c>
       <c r="F5">
-        <v>11.8862987703972</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>13.15779257584721</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.973515607416503</v>
+        <v>6.973515607416611</v>
       </c>
       <c r="I5">
-        <v>55.58449235694481</v>
+        <v>55.58449235694468</v>
       </c>
       <c r="J5">
-        <v>0.9743985902508514</v>
+        <v>0.9743985901710175</v>
       </c>
       <c r="K5">
-        <v>3.291772033548036</v>
+        <v>3.291772033565117</v>
       </c>
       <c r="L5">
-        <v>0.974398590260679</v>
+        <v>0.9743985902598882</v>
       </c>
       <c r="M5">
-        <v>3.291772033564278</v>
+        <v>3.291772033564901</v>
       </c>
       <c r="N5">
-        <v>1.058527637719332</v>
+        <v>1.030135979471449</v>
       </c>
       <c r="O5">
-        <v>0.7610792363887005</v>
+        <v>1.100000023842607</v>
       </c>
       <c r="P5">
-        <v>0.9443190052701124</v>
+        <v>1.031243254471447</v>
       </c>
       <c r="Q5">
-        <v>20.87052935980883</v>
+        <v>32.20180633173356</v>
       </c>
       <c r="R5">
-        <v>-99.22644568573375</v>
+        <v>-89.99999999999733</v>
       </c>
       <c r="S5">
-        <v>156.6601459741473</v>
+        <v>147.7006400663207</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4252,58 +4252,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.4716506383830389</v>
       </c>
       <c r="C6">
-        <v>1.029383669213571</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.139498262840997</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5.446152460678128</v>
       </c>
       <c r="F6">
-        <v>11.8862987703972</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>13.15779257584721</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.973515607416514</v>
+        <v>6.973515607416626</v>
       </c>
       <c r="I6">
-        <v>55.58449235694481</v>
+        <v>55.58449235694467</v>
       </c>
       <c r="J6">
-        <v>0.9743985902508525</v>
+        <v>0.9743985901710196</v>
       </c>
       <c r="K6">
-        <v>3.291772033548037</v>
+        <v>3.291772033565107</v>
       </c>
       <c r="L6">
-        <v>0.9743985902606839</v>
+        <v>0.9743985902598861</v>
       </c>
       <c r="M6">
-        <v>3.291772033564274</v>
+        <v>3.291772033564892</v>
       </c>
       <c r="N6">
-        <v>1.058527637719332</v>
+        <v>1.030135979471449</v>
       </c>
       <c r="O6">
-        <v>0.7610792363887003</v>
+        <v>1.100000023842607</v>
       </c>
       <c r="P6">
-        <v>0.9443190052701121</v>
+        <v>1.031243254471447</v>
       </c>
       <c r="Q6">
-        <v>20.87052935980883</v>
+        <v>32.20180633173356</v>
       </c>
       <c r="R6">
-        <v>-99.22644568573376</v>
+        <v>-89.99999999999733</v>
       </c>
       <c r="S6">
-        <v>156.6601459741473</v>
+        <v>147.7006400663207</v>
       </c>
     </row>
   </sheetData>
@@ -4534,58 +4534,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.617960382473001</v>
       </c>
       <c r="C2">
-        <v>3.617960382593723</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.617960382231206</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>229.7713440812008</v>
       </c>
       <c r="F2">
-        <v>229.7713440888676</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>229.7713440658447</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.243944534971</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.32439447418605</v>
+        <v>1.324394473163435</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104235</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.8378427578256962</v>
+        <v>0.6918398877278029</v>
       </c>
       <c r="O2">
-        <v>0.4028253111898906</v>
+        <v>1.100000023874158</v>
       </c>
       <c r="P2">
-        <v>0.6918398877011797</v>
+        <v>0.8378427578966809</v>
       </c>
       <c r="Q2">
-        <v>8.957471693504781</v>
+        <v>40.40951795604942</v>
       </c>
       <c r="R2">
-        <v>-115.8807585964592</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>160.4095179569557</v>
+        <v>128.9574716956184</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4593,58 +4593,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.5144211521721499</v>
       </c>
       <c r="C3">
-        <v>1.169623827333658</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.312688464691717</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5.940023813668565</v>
       </c>
       <c r="F3">
-        <v>13.50565263123376</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.15762076903759</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02718770036915611</v>
+        <v>0.02718770036919746</v>
       </c>
       <c r="I3">
-        <v>52.87164768924225</v>
+        <v>52.8716476892421</v>
       </c>
       <c r="J3">
-        <v>0.1077319054036947</v>
+        <v>0.1077319053236429</v>
       </c>
       <c r="K3">
-        <v>2.308438694626096</v>
+        <v>2.308438694643186</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135233</v>
+        <v>0.1077319054125093</v>
       </c>
       <c r="M3">
-        <v>2.308438694642237</v>
+        <v>2.30843869464287</v>
       </c>
       <c r="N3">
-        <v>1.097956955950057</v>
+        <v>1.044645993620451</v>
       </c>
       <c r="O3">
-        <v>0.8723446855797278</v>
+        <v>1.100000023842566</v>
       </c>
       <c r="P3">
-        <v>0.9608059414399968</v>
+        <v>1.05460862566259</v>
       </c>
       <c r="Q3">
-        <v>22.95039220883865</v>
+        <v>31.15761007791376</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396221</v>
+        <v>-89.99999999999747</v>
       </c>
       <c r="S3">
-        <v>153.3588929335853</v>
+        <v>147.9584136939147</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4652,58 +4652,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4878356558151786</v>
       </c>
       <c r="C4">
-        <v>1.0811063111413</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.203140549618417</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5.633040944103819</v>
       </c>
       <c r="F4">
-        <v>12.48354039520066</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>13.89267040390295</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.329027417091045</v>
+        <v>4.329027417091137</v>
       </c>
       <c r="I4">
-        <v>54.55256884783186</v>
+        <v>54.55256884783171</v>
       </c>
       <c r="J4">
-        <v>0.6277319163543693</v>
+        <v>0.6277319162744488</v>
       </c>
       <c r="K4">
-        <v>2.898438697943179</v>
+        <v>2.898438697960259</v>
       </c>
       <c r="L4">
-        <v>0.6277319163642021</v>
+        <v>0.6277319163633277</v>
       </c>
       <c r="M4">
-        <v>2.898438697959381</v>
+        <v>2.898438697960005</v>
       </c>
       <c r="N4">
-        <v>1.072930679840118</v>
+        <v>1.036031605502453</v>
       </c>
       <c r="O4">
-        <v>0.8020156209370725</v>
+        <v>1.100000023842596</v>
       </c>
       <c r="P4">
-        <v>0.9503466787071521</v>
+        <v>1.040122732411645</v>
       </c>
       <c r="Q4">
-        <v>21.65937363933008</v>
+        <v>31.81277621807776</v>
       </c>
       <c r="R4">
-        <v>-99.52967390015488</v>
+        <v>-89.99999999999739</v>
       </c>
       <c r="S4">
-        <v>155.4443486114421</v>
+        <v>147.8257682689542</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4711,58 +4711,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.4716506383830388</v>
       </c>
       <c r="C5">
-        <v>1.029383669213571</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.139498262840996</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5.446152460678126</v>
       </c>
       <c r="F5">
-        <v>11.8862987703972</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>13.15779257584721</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.973515607416503</v>
+        <v>6.973515607416611</v>
       </c>
       <c r="I5">
-        <v>55.58449235694481</v>
+        <v>55.58449235694468</v>
       </c>
       <c r="J5">
-        <v>0.9743985902508514</v>
+        <v>0.9743985901710175</v>
       </c>
       <c r="K5">
-        <v>3.291772033548036</v>
+        <v>3.291772033565117</v>
       </c>
       <c r="L5">
-        <v>0.974398590260679</v>
+        <v>0.9743985902598882</v>
       </c>
       <c r="M5">
-        <v>3.291772033564278</v>
+        <v>3.291772033564901</v>
       </c>
       <c r="N5">
-        <v>1.058527637719332</v>
+        <v>1.030135979471449</v>
       </c>
       <c r="O5">
-        <v>0.7610792363887005</v>
+        <v>1.100000023842607</v>
       </c>
       <c r="P5">
-        <v>0.9443190052701124</v>
+        <v>1.031243254471447</v>
       </c>
       <c r="Q5">
-        <v>20.87052935980883</v>
+        <v>32.20180633173356</v>
       </c>
       <c r="R5">
-        <v>-99.22644568573375</v>
+        <v>-89.99999999999733</v>
       </c>
       <c r="S5">
-        <v>156.6601459741473</v>
+        <v>147.7006400663207</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4770,58 +4770,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.4716506383830389</v>
       </c>
       <c r="C6">
-        <v>1.029383669213571</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.139498262840997</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5.446152460678128</v>
       </c>
       <c r="F6">
-        <v>11.8862987703972</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>13.15779257584721</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.973515607416514</v>
+        <v>6.973515607416626</v>
       </c>
       <c r="I6">
-        <v>55.58449235694481</v>
+        <v>55.58449235694467</v>
       </c>
       <c r="J6">
-        <v>0.9743985902508525</v>
+        <v>0.9743985901710196</v>
       </c>
       <c r="K6">
-        <v>3.291772033548037</v>
+        <v>3.291772033565107</v>
       </c>
       <c r="L6">
-        <v>0.9743985902606839</v>
+        <v>0.9743985902598861</v>
       </c>
       <c r="M6">
-        <v>3.291772033564274</v>
+        <v>3.291772033564892</v>
       </c>
       <c r="N6">
-        <v>1.058527637719332</v>
+        <v>1.030135979471449</v>
       </c>
       <c r="O6">
-        <v>0.7610792363887003</v>
+        <v>1.100000023842607</v>
       </c>
       <c r="P6">
-        <v>0.9443190052701121</v>
+        <v>1.031243254471447</v>
       </c>
       <c r="Q6">
-        <v>20.87052935980883</v>
+        <v>32.20180633173356</v>
       </c>
       <c r="R6">
-        <v>-99.22644568573376</v>
+        <v>-89.99999999999733</v>
       </c>
       <c r="S6">
-        <v>156.6601459741473</v>
+        <v>147.7006400663207</v>
       </c>
     </row>
   </sheetData>
@@ -4901,58 +4901,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.198911195792622</v>
       </c>
       <c r="C2">
-        <v>4.198911196109218</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.198911195412805</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>266.6666760113624</v>
       </c>
       <c r="F2">
-        <v>266.666676031469</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>266.6666759872408</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
-        <v>15.04993697142947</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993721246239</v>
+        <v>1.504993722648798</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.577350269195234</v>
+        <v>0.5773502691155633</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P2">
-        <v>0.5773502691743764</v>
+        <v>0.5773502692541779</v>
       </c>
       <c r="Q2">
-        <v>-5.812888752757406E-09</v>
+        <v>59.99999999647623</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>179.9999999936331</v>
+        <v>119.9999999955745</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4960,58 +4960,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.6001667698956769</v>
       </c>
       <c r="C3">
-        <v>4.129473734408753</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.144080755620347</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6.930128923158745</v>
       </c>
       <c r="F3">
-        <v>47.68305544344766</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>47.85172279601911</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.05222143805331292</v>
+        <v>0.05222143805341437</v>
       </c>
       <c r="I3">
-        <v>52.88549543493839</v>
+        <v>52.8854954349381</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814378</v>
+        <v>0.1153518595185588</v>
       </c>
       <c r="K3">
-        <v>2.41639754069322</v>
+        <v>2.416397540676098</v>
       </c>
       <c r="L3">
-        <v>0.1153518594714293</v>
+        <v>0.1153518594704514</v>
       </c>
       <c r="M3">
-        <v>2.416397540675149</v>
+        <v>2.416397540675685</v>
       </c>
       <c r="N3">
-        <v>0.8466811339332698</v>
+        <v>0.9395496491866654</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.00000000000067</v>
       </c>
       <c r="P3">
-        <v>0.8466811339332118</v>
+        <v>0.936237932435901</v>
       </c>
       <c r="Q3">
-        <v>0.05982627485272397</v>
+        <v>32.37618031355603</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999774</v>
       </c>
       <c r="S3">
-        <v>-179.9401737252163</v>
+        <v>147.9448907708882</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5019,58 +5019,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.5640092665611054</v>
       </c>
       <c r="C4">
-        <v>3.092708307846957</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.152651525080952</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6.512618037489951</v>
       </c>
       <c r="F4">
-        <v>35.71151948120865</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>36.40368413333144</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.311109134576862</v>
+        <v>8.311109134576997</v>
       </c>
       <c r="I4">
-        <v>54.49554923126105</v>
+        <v>54.49554923126074</v>
       </c>
       <c r="J4">
-        <v>1.113751880243407</v>
+        <v>1.113751880280815</v>
       </c>
       <c r="K4">
-        <v>3.006397543762932</v>
+        <v>3.006397543745829</v>
       </c>
       <c r="L4">
-        <v>1.113751880233443</v>
+        <v>1.113751880232678</v>
       </c>
       <c r="M4">
-        <v>3.006397543745007</v>
+        <v>3.006397543745498</v>
       </c>
       <c r="N4">
-        <v>0.842030318448669</v>
+        <v>0.9330416675723027</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.000000000000491</v>
       </c>
       <c r="P4">
-        <v>0.8420303184488573</v>
+        <v>0.9153011977098526</v>
       </c>
       <c r="Q4">
-        <v>0.3273031180172733</v>
+        <v>33.60426597448819</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999764</v>
       </c>
       <c r="S4">
-        <v>-179.6726968823425</v>
+        <v>148.1055649583977</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5078,58 +5078,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.5366991708749396</v>
       </c>
       <c r="C5">
-        <v>2.575446075063281</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.644481933762514</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6.197268215569907</v>
       </c>
       <c r="F5">
-        <v>29.73868969442301</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>30.53584712649779</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>13.38798040396568</v>
+        <v>13.38798040396584</v>
       </c>
       <c r="I5">
-        <v>55.48064066857648</v>
+        <v>55.48064066857618</v>
       </c>
       <c r="J5">
-        <v>1.779351894002735</v>
+        <v>1.779351894040323</v>
       </c>
       <c r="K5">
-        <v>3.399730879261183</v>
+        <v>3.399730879244087</v>
       </c>
       <c r="L5">
-        <v>1.779351893992793</v>
+        <v>1.779351893992166</v>
       </c>
       <c r="M5">
-        <v>3.399730879243327</v>
+        <v>3.399730879243824</v>
       </c>
       <c r="N5">
-        <v>0.8386502577300845</v>
+        <v>0.9265715309201955</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.000000000000387</v>
       </c>
       <c r="P5">
-        <v>0.8386502577302992</v>
+        <v>0.9023828002404692</v>
       </c>
       <c r="Q5">
-        <v>0.4531365618960083</v>
+        <v>34.29796760261699</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999754</v>
       </c>
       <c r="S5">
-        <v>-179.5468634385058</v>
+        <v>148.0232122979766</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5137,58 +5137,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.5366991708749395</v>
       </c>
       <c r="C6">
-        <v>2.575446075063279</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.644481933762513</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6.197268215569905</v>
       </c>
       <c r="F6">
-        <v>29.73868969442299</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>30.53584712649779</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>13.38798040396567</v>
+        <v>13.38798040396584</v>
       </c>
       <c r="I6">
-        <v>55.48064066857652</v>
+        <v>55.48064066857621</v>
       </c>
       <c r="J6">
-        <v>1.779351894002739</v>
+        <v>1.779351894040319</v>
       </c>
       <c r="K6">
-        <v>3.399730879261183</v>
+        <v>3.399730879244085</v>
       </c>
       <c r="L6">
-        <v>1.779351893992792</v>
+        <v>1.779351893992166</v>
       </c>
       <c r="M6">
-        <v>3.399730879243329</v>
+        <v>3.399730879243822</v>
       </c>
       <c r="N6">
-        <v>0.8386502577300845</v>
+        <v>0.9265715309201955</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.000000000000387</v>
       </c>
       <c r="P6">
-        <v>0.838650257730299</v>
+        <v>0.9023828002404692</v>
       </c>
       <c r="Q6">
-        <v>0.4531365618960122</v>
+        <v>34.29796760261698</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999754</v>
       </c>
       <c r="S6">
-        <v>-179.5468634385058</v>
+        <v>148.0232122979766</v>
       </c>
     </row>
   </sheetData>
@@ -5268,58 +5268,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.198911195792622</v>
       </c>
       <c r="C2">
-        <v>4.198911196109218</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.198911195412805</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>266.6666760113624</v>
       </c>
       <c r="F2">
-        <v>266.666676031469</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>266.6666759872408</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
-        <v>15.04993697142947</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993721246239</v>
+        <v>1.504993722648798</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.577350269195234</v>
+        <v>0.5773502691155633</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P2">
-        <v>0.5773502691743764</v>
+        <v>0.5773502692541779</v>
       </c>
       <c r="Q2">
-        <v>-5.812888752757406E-09</v>
+        <v>59.99999999647623</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>179.9999999936331</v>
+        <v>119.9999999955745</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5327,58 +5327,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.6001667698956769</v>
       </c>
       <c r="C3">
-        <v>4.129473734408753</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.144080755620347</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6.930128923158745</v>
       </c>
       <c r="F3">
-        <v>47.68305544344766</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>47.85172279601911</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.05222143805331292</v>
+        <v>0.05222143805341437</v>
       </c>
       <c r="I3">
-        <v>52.88549543493839</v>
+        <v>52.8854954349381</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814378</v>
+        <v>0.1153518595185588</v>
       </c>
       <c r="K3">
-        <v>2.41639754069322</v>
+        <v>2.416397540676098</v>
       </c>
       <c r="L3">
-        <v>0.1153518594714293</v>
+        <v>0.1153518594704514</v>
       </c>
       <c r="M3">
-        <v>2.416397540675149</v>
+        <v>2.416397540675685</v>
       </c>
       <c r="N3">
-        <v>0.8466811339332698</v>
+        <v>0.9395496491866654</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.00000000000067</v>
       </c>
       <c r="P3">
-        <v>0.8466811339332118</v>
+        <v>0.936237932435901</v>
       </c>
       <c r="Q3">
-        <v>0.05982627485272397</v>
+        <v>32.37618031355603</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999774</v>
       </c>
       <c r="S3">
-        <v>-179.9401737252163</v>
+        <v>147.9448907708882</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5386,58 +5386,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.5640092665611054</v>
       </c>
       <c r="C4">
-        <v>3.092708307846957</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.152651525080952</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6.512618037489951</v>
       </c>
       <c r="F4">
-        <v>35.71151948120865</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>36.40368413333144</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.311109134576862</v>
+        <v>8.311109134576997</v>
       </c>
       <c r="I4">
-        <v>54.49554923126105</v>
+        <v>54.49554923126074</v>
       </c>
       <c r="J4">
-        <v>1.113751880243407</v>
+        <v>1.113751880280815</v>
       </c>
       <c r="K4">
-        <v>3.006397543762932</v>
+        <v>3.006397543745829</v>
       </c>
       <c r="L4">
-        <v>1.113751880233443</v>
+        <v>1.113751880232678</v>
       </c>
       <c r="M4">
-        <v>3.006397543745007</v>
+        <v>3.006397543745498</v>
       </c>
       <c r="N4">
-        <v>0.842030318448669</v>
+        <v>0.9330416675723027</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.000000000000491</v>
       </c>
       <c r="P4">
-        <v>0.8420303184488573</v>
+        <v>0.9153011977098526</v>
       </c>
       <c r="Q4">
-        <v>0.3273031180172733</v>
+        <v>33.60426597448819</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999764</v>
       </c>
       <c r="S4">
-        <v>-179.6726968823425</v>
+        <v>148.1055649583977</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5445,58 +5445,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.5366991708749396</v>
       </c>
       <c r="C5">
-        <v>2.575446075063281</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.644481933762514</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6.197268215569907</v>
       </c>
       <c r="F5">
-        <v>29.73868969442301</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>30.53584712649779</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>13.38798040396568</v>
+        <v>13.38798040396584</v>
       </c>
       <c r="I5">
-        <v>55.48064066857648</v>
+        <v>55.48064066857618</v>
       </c>
       <c r="J5">
-        <v>1.779351894002735</v>
+        <v>1.779351894040323</v>
       </c>
       <c r="K5">
-        <v>3.399730879261183</v>
+        <v>3.399730879244087</v>
       </c>
       <c r="L5">
-        <v>1.779351893992793</v>
+        <v>1.779351893992166</v>
       </c>
       <c r="M5">
-        <v>3.399730879243327</v>
+        <v>3.399730879243824</v>
       </c>
       <c r="N5">
-        <v>0.8386502577300845</v>
+        <v>0.9265715309201955</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.000000000000387</v>
       </c>
       <c r="P5">
-        <v>0.8386502577302992</v>
+        <v>0.9023828002404692</v>
       </c>
       <c r="Q5">
-        <v>0.4531365618960083</v>
+        <v>34.29796760261699</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999754</v>
       </c>
       <c r="S5">
-        <v>-179.5468634385058</v>
+        <v>148.0232122979766</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5504,58 +5504,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.5366991708749395</v>
       </c>
       <c r="C6">
-        <v>2.575446075063279</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.644481933762513</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6.197268215569905</v>
       </c>
       <c r="F6">
-        <v>29.73868969442299</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>30.53584712649779</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>13.38798040396567</v>
+        <v>13.38798040396584</v>
       </c>
       <c r="I6">
-        <v>55.48064066857652</v>
+        <v>55.48064066857621</v>
       </c>
       <c r="J6">
-        <v>1.779351894002739</v>
+        <v>1.779351894040319</v>
       </c>
       <c r="K6">
-        <v>3.399730879261183</v>
+        <v>3.399730879244085</v>
       </c>
       <c r="L6">
-        <v>1.779351893992792</v>
+        <v>1.779351893992166</v>
       </c>
       <c r="M6">
-        <v>3.399730879243329</v>
+        <v>3.399730879243822</v>
       </c>
       <c r="N6">
-        <v>0.8386502577300845</v>
+        <v>0.9265715309201955</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.000000000000387</v>
       </c>
       <c r="P6">
-        <v>0.838650257730299</v>
+        <v>0.9023828002404692</v>
       </c>
       <c r="Q6">
-        <v>0.4531365618960122</v>
+        <v>34.29796760261698</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999754</v>
       </c>
       <c r="S6">
-        <v>-179.5468634385058</v>
+        <v>148.0232122979766</v>
       </c>
     </row>
   </sheetData>
@@ -5635,58 +5635,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.012913138756734</v>
       </c>
       <c r="C2">
-        <v>3.012913138951925</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.012913138593917</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>191.3456832876777</v>
       </c>
       <c r="F2">
-        <v>191.345683300074</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>191.3456832773374</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
-        <v>15.04993697142947</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993721246239</v>
+        <v>1.504993722648798</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.7472997527192564</v>
+        <v>0.6184267549947471</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689601</v>
+        <v>0.9999999999908641</v>
       </c>
       <c r="P2">
-        <v>0.6184267550384415</v>
+        <v>0.7472997527351805</v>
       </c>
       <c r="Q2">
-        <v>8.109158318802283</v>
+        <v>41.77463363119258</v>
       </c>
       <c r="R2">
-        <v>-117.0248837767962</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>161.7746336318227</v>
+        <v>128.1091583196818</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5694,58 +5694,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.466188325492765</v>
       </c>
       <c r="C3">
-        <v>1.052697494504677</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.180992453853325</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5.383079104326175</v>
       </c>
       <c r="F3">
-        <v>12.15550363655039</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>13.63692622286268</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.05222143805331292</v>
+        <v>0.05222143805341437</v>
       </c>
       <c r="I3">
-        <v>52.88549543493839</v>
+        <v>52.8854954349381</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814378</v>
+        <v>0.1153518595185588</v>
       </c>
       <c r="K3">
-        <v>2.41639754069322</v>
+        <v>2.416397540676098</v>
       </c>
       <c r="L3">
-        <v>0.1153518594714293</v>
+        <v>0.1153518594704514</v>
       </c>
       <c r="M3">
-        <v>2.416397540675149</v>
+        <v>2.416397540675685</v>
       </c>
       <c r="N3">
-        <v>0.9972557644224342</v>
+        <v>0.9475214714187619</v>
       </c>
       <c r="O3">
-        <v>0.7848521014140649</v>
+        <v>1.00000000000038</v>
       </c>
       <c r="P3">
-        <v>0.8693348989513532</v>
+        <v>0.9569238864575631</v>
       </c>
       <c r="Q3">
-        <v>22.69114698921615</v>
+        <v>31.21449995361951</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786927</v>
+        <v>-89.99999999999747</v>
       </c>
       <c r="S3">
-        <v>153.5481119598529</v>
+        <v>147.8685277191759</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5753,58 +5753,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.434586486224326</v>
       </c>
       <c r="C4">
-        <v>0.9490931476202201</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.051156758226562</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5.018172496155764</v>
       </c>
       <c r="F4">
-        <v>10.95918368529127</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>12.13771274645199</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.311109134576862</v>
+        <v>8.311109134576997</v>
       </c>
       <c r="I4">
-        <v>54.49554923126105</v>
+        <v>54.49554923126074</v>
       </c>
       <c r="J4">
-        <v>1.113751880243407</v>
+        <v>1.113751880280815</v>
       </c>
       <c r="K4">
-        <v>3.006397543762932</v>
+        <v>3.006397543745829</v>
       </c>
       <c r="L4">
-        <v>1.113751880233443</v>
+        <v>1.113751880232678</v>
       </c>
       <c r="M4">
-        <v>3.006397543745007</v>
+        <v>3.006397543745498</v>
       </c>
       <c r="N4">
-        <v>0.9578360751585654</v>
+        <v>0.9413996486567928</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934732</v>
+        <v>1.00000000000027</v>
       </c>
       <c r="P4">
-        <v>0.8699692122462657</v>
+        <v>0.9392780664697753</v>
       </c>
       <c r="Q4">
-        <v>21.43395682535118</v>
+        <v>32.22485107094072</v>
       </c>
       <c r="R4">
-        <v>-97.63434507041889</v>
+        <v>-89.99999999999734</v>
       </c>
       <c r="S4">
-        <v>156.5869817588516</v>
+        <v>147.9810480345871</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5812,58 +5812,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.4142522905135324</v>
       </c>
       <c r="C5">
-        <v>0.8903910326368715</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9777133855363679</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4.78337342880814</v>
       </c>
       <c r="F5">
-        <v>10.28135004753853</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>11.28966172659445</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>13.38798040396568</v>
+        <v>13.38798040396584</v>
       </c>
       <c r="I5">
-        <v>55.48064066857648</v>
+        <v>55.48064066857618</v>
       </c>
       <c r="J5">
-        <v>1.779351894002735</v>
+        <v>1.779351894040323</v>
       </c>
       <c r="K5">
-        <v>3.399730879261183</v>
+        <v>3.399730879244087</v>
       </c>
       <c r="L5">
-        <v>1.779351893992793</v>
+        <v>1.779351893992166</v>
       </c>
       <c r="M5">
-        <v>3.399730879243327</v>
+        <v>3.399730879243824</v>
       </c>
       <c r="N5">
-        <v>0.9366221555591173</v>
+        <v>0.9361477969994384</v>
       </c>
       <c r="O5">
-        <v>0.6550793552709107</v>
+        <v>1.000000000000211</v>
       </c>
       <c r="P5">
-        <v>0.8690194829182928</v>
+        <v>0.9284702471193655</v>
       </c>
       <c r="Q5">
-        <v>20.59757018817725</v>
+        <v>32.80283255042304</v>
       </c>
       <c r="R5">
-        <v>-96.09329345652415</v>
+        <v>-89.99999999999726</v>
       </c>
       <c r="S5">
-        <v>158.2605573389836</v>
+        <v>147.9397378299686</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5871,58 +5871,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.4142522905135323</v>
       </c>
       <c r="C6">
-        <v>0.8903910326368715</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9777133855363679</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4.783373428808138</v>
       </c>
       <c r="F6">
-        <v>10.28135004753853</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>11.28966172659445</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>13.38798040396567</v>
+        <v>13.38798040396584</v>
       </c>
       <c r="I6">
-        <v>55.48064066857652</v>
+        <v>55.48064066857621</v>
       </c>
       <c r="J6">
-        <v>1.779351894002739</v>
+        <v>1.779351894040319</v>
       </c>
       <c r="K6">
-        <v>3.399730879261183</v>
+        <v>3.399730879244085</v>
       </c>
       <c r="L6">
-        <v>1.779351893992792</v>
+        <v>1.779351893992166</v>
       </c>
       <c r="M6">
-        <v>3.399730879243329</v>
+        <v>3.399730879243822</v>
       </c>
       <c r="N6">
-        <v>0.9366221555591173</v>
+        <v>0.9361477969994383</v>
       </c>
       <c r="O6">
-        <v>0.6550793552709104</v>
+        <v>1.000000000000211</v>
       </c>
       <c r="P6">
-        <v>0.8690194829182928</v>
+        <v>0.9284702471193655</v>
       </c>
       <c r="Q6">
-        <v>20.59757018817726</v>
+        <v>32.80283255042304</v>
       </c>
       <c r="R6">
-        <v>-96.09329345652414</v>
+        <v>-89.99999999999726</v>
       </c>
       <c r="S6">
-        <v>158.2605573389836</v>
+        <v>147.9397378299686</v>
       </c>
     </row>
   </sheetData>
@@ -6002,58 +6002,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.012913138756734</v>
       </c>
       <c r="C2">
-        <v>3.012913138951925</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.012913138593917</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>191.3456832876777</v>
       </c>
       <c r="F2">
-        <v>191.345683300074</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>191.3456832773374</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
-        <v>15.04993697142947</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993721246239</v>
+        <v>1.504993722648798</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.7472997527192564</v>
+        <v>0.6184267549947471</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689601</v>
+        <v>0.9999999999908641</v>
       </c>
       <c r="P2">
-        <v>0.6184267550384415</v>
+        <v>0.7472997527351805</v>
       </c>
       <c r="Q2">
-        <v>8.109158318802283</v>
+        <v>41.77463363119258</v>
       </c>
       <c r="R2">
-        <v>-117.0248837767962</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>161.7746336318227</v>
+        <v>128.1091583196818</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6061,58 +6061,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.466188325492765</v>
       </c>
       <c r="C3">
-        <v>1.052697494504677</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.180992453853325</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5.383079104326175</v>
       </c>
       <c r="F3">
-        <v>12.15550363655039</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>13.63692622286268</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.05222143805331292</v>
+        <v>0.05222143805341437</v>
       </c>
       <c r="I3">
-        <v>52.88549543493839</v>
+        <v>52.8854954349381</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814378</v>
+        <v>0.1153518595185588</v>
       </c>
       <c r="K3">
-        <v>2.41639754069322</v>
+        <v>2.416397540676098</v>
       </c>
       <c r="L3">
-        <v>0.1153518594714293</v>
+        <v>0.1153518594704514</v>
       </c>
       <c r="M3">
-        <v>2.416397540675149</v>
+        <v>2.416397540675685</v>
       </c>
       <c r="N3">
-        <v>0.9972557644224342</v>
+        <v>0.9475214714187619</v>
       </c>
       <c r="O3">
-        <v>0.7848521014140649</v>
+        <v>1.00000000000038</v>
       </c>
       <c r="P3">
-        <v>0.8693348989513532</v>
+        <v>0.9569238864575631</v>
       </c>
       <c r="Q3">
-        <v>22.69114698921615</v>
+        <v>31.21449995361951</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786927</v>
+        <v>-89.99999999999747</v>
       </c>
       <c r="S3">
-        <v>153.5481119598529</v>
+        <v>147.8685277191759</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6120,58 +6120,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.434586486224326</v>
       </c>
       <c r="C4">
-        <v>0.9490931476202201</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.051156758226562</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5.018172496155764</v>
       </c>
       <c r="F4">
-        <v>10.95918368529127</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>12.13771274645199</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.311109134576862</v>
+        <v>8.311109134576997</v>
       </c>
       <c r="I4">
-        <v>54.49554923126105</v>
+        <v>54.49554923126074</v>
       </c>
       <c r="J4">
-        <v>1.113751880243407</v>
+        <v>1.113751880280815</v>
       </c>
       <c r="K4">
-        <v>3.006397543762932</v>
+        <v>3.006397543745829</v>
       </c>
       <c r="L4">
-        <v>1.113751880233443</v>
+        <v>1.113751880232678</v>
       </c>
       <c r="M4">
-        <v>3.006397543745007</v>
+        <v>3.006397543745498</v>
       </c>
       <c r="N4">
-        <v>0.9578360751585654</v>
+        <v>0.9413996486567928</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934732</v>
+        <v>1.00000000000027</v>
       </c>
       <c r="P4">
-        <v>0.8699692122462657</v>
+        <v>0.9392780664697753</v>
       </c>
       <c r="Q4">
-        <v>21.43395682535118</v>
+        <v>32.22485107094072</v>
       </c>
       <c r="R4">
-        <v>-97.63434507041889</v>
+        <v>-89.99999999999734</v>
       </c>
       <c r="S4">
-        <v>156.5869817588516</v>
+        <v>147.9810480345871</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6179,58 +6179,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.4142522905135324</v>
       </c>
       <c r="C5">
-        <v>0.8903910326368715</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9777133855363679</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4.78337342880814</v>
       </c>
       <c r="F5">
-        <v>10.28135004753853</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>11.28966172659445</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>13.38798040396568</v>
+        <v>13.38798040396584</v>
       </c>
       <c r="I5">
-        <v>55.48064066857648</v>
+        <v>55.48064066857618</v>
       </c>
       <c r="J5">
-        <v>1.779351894002735</v>
+        <v>1.779351894040323</v>
       </c>
       <c r="K5">
-        <v>3.399730879261183</v>
+        <v>3.399730879244087</v>
       </c>
       <c r="L5">
-        <v>1.779351893992793</v>
+        <v>1.779351893992166</v>
       </c>
       <c r="M5">
-        <v>3.399730879243327</v>
+        <v>3.399730879243824</v>
       </c>
       <c r="N5">
-        <v>0.9366221555591173</v>
+        <v>0.9361477969994384</v>
       </c>
       <c r="O5">
-        <v>0.6550793552709107</v>
+        <v>1.000000000000211</v>
       </c>
       <c r="P5">
-        <v>0.8690194829182928</v>
+        <v>0.9284702471193655</v>
       </c>
       <c r="Q5">
-        <v>20.59757018817725</v>
+        <v>32.80283255042304</v>
       </c>
       <c r="R5">
-        <v>-96.09329345652415</v>
+        <v>-89.99999999999726</v>
       </c>
       <c r="S5">
-        <v>158.2605573389836</v>
+        <v>147.9397378299686</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6238,58 +6238,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.4142522905135323</v>
       </c>
       <c r="C6">
-        <v>0.8903910326368715</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9777133855363679</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4.783373428808138</v>
       </c>
       <c r="F6">
-        <v>10.28135004753853</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>11.28966172659445</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>13.38798040396567</v>
+        <v>13.38798040396584</v>
       </c>
       <c r="I6">
-        <v>55.48064066857652</v>
+        <v>55.48064066857621</v>
       </c>
       <c r="J6">
-        <v>1.779351894002739</v>
+        <v>1.779351894040319</v>
       </c>
       <c r="K6">
-        <v>3.399730879261183</v>
+        <v>3.399730879244085</v>
       </c>
       <c r="L6">
-        <v>1.779351893992792</v>
+        <v>1.779351893992166</v>
       </c>
       <c r="M6">
-        <v>3.399730879243329</v>
+        <v>3.399730879243822</v>
       </c>
       <c r="N6">
-        <v>0.9366221555591173</v>
+        <v>0.9361477969994383</v>
       </c>
       <c r="O6">
-        <v>0.6550793552709104</v>
+        <v>1.000000000000211</v>
       </c>
       <c r="P6">
-        <v>0.8690194829182928</v>
+        <v>0.9284702471193655</v>
       </c>
       <c r="Q6">
-        <v>20.59757018817726</v>
+        <v>32.80283255042304</v>
       </c>
       <c r="R6">
-        <v>-96.09329345652414</v>
+        <v>-89.99999999999726</v>
       </c>
       <c r="S6">
-        <v>158.2605573389836</v>
+        <v>147.9397378299686</v>
       </c>
     </row>
   </sheetData>
@@ -6369,58 +6369,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.248639108526411</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.24863910873685</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.248639107970815</v>
       </c>
       <c r="E2">
-        <v>333.3333522405613</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>333.333352253926</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.32439447741944</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394473163435</v>
+        <v>1.32439447418605</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6350853098740159</v>
+        <v>0.6350853098347083</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853099409387</v>
+        <v>0.635085309850708</v>
       </c>
       <c r="Q2">
-        <v>59.99999999685332</v>
+        <v>-4.877403765969958E-09</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.9999999996536</v>
+        <v>179.999999996043</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6428,58 +6428,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6628240872351328</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.755252724976655</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.771153425147081</v>
       </c>
       <c r="E3">
-        <v>7.653633303811437</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>54.90892881659948</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>55.09253428707345</v>
       </c>
       <c r="H3">
-        <v>0.02718770036919746</v>
+        <v>0.02718770036915611</v>
       </c>
       <c r="I3">
-        <v>52.8716476892421</v>
+        <v>52.87164768924225</v>
       </c>
       <c r="J3">
-        <v>0.1077319053236429</v>
+        <v>0.1077319054036947</v>
       </c>
       <c r="K3">
-        <v>2.308438694643186</v>
+        <v>2.308438694626096</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125093</v>
+        <v>0.1077319054135233</v>
       </c>
       <c r="M3">
-        <v>2.30843869464287</v>
+        <v>2.308438694642237</v>
       </c>
       <c r="N3">
-        <v>1.036170808042147</v>
+        <v>0.9322749059328834</v>
       </c>
       <c r="O3">
-        <v>1.100000023842439</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.032717588269755</v>
+        <v>0.9322749059338886</v>
       </c>
       <c r="Q3">
-        <v>32.27168657246929</v>
+        <v>0.05649667791871166</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999774</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>148.0329896420457</v>
+        <v>-179.9435033220763</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6487,58 +6487,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6287218226864537</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.690912397743493</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.735009540497535</v>
       </c>
       <c r="E4">
-        <v>7.259854271468325</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>42.61898532785066</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>43.12817527264145</v>
       </c>
       <c r="H4">
-        <v>4.329027417091137</v>
+        <v>4.329027417091045</v>
       </c>
       <c r="I4">
-        <v>54.55256884783171</v>
+        <v>54.55256884783186</v>
       </c>
       <c r="J4">
-        <v>0.6277319162744488</v>
+        <v>0.6277319163543693</v>
       </c>
       <c r="K4">
-        <v>2.898438697960259</v>
+        <v>2.898438697943179</v>
       </c>
       <c r="L4">
-        <v>0.6277319163633277</v>
+        <v>0.6277319163642021</v>
       </c>
       <c r="M4">
-        <v>2.898438697960005</v>
+        <v>2.898438697959381</v>
       </c>
       <c r="N4">
-        <v>1.027008523323554</v>
+        <v>0.9277102131239966</v>
       </c>
       <c r="O4">
-        <v>1.100000023842549</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.014883215215973</v>
+        <v>0.9277102131260881</v>
       </c>
       <c r="Q4">
-        <v>33.1268115785238</v>
+        <v>0.2021272668917655</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999767</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>147.9374049578646</v>
+        <v>-179.7978727330858</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6546,58 +6546,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6067207606382948</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.182411750626919</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.234338695016242</v>
       </c>
       <c r="E5">
-        <v>7.005807889549081</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>36.7473256179336</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>37.34692632436101</v>
       </c>
       <c r="H5">
-        <v>6.973515607416611</v>
+        <v>6.973515607416503</v>
       </c>
       <c r="I5">
-        <v>55.58449235694468</v>
+        <v>55.58449235694481</v>
       </c>
       <c r="J5">
-        <v>0.9743985901710175</v>
+        <v>0.9743985902508514</v>
       </c>
       <c r="K5">
-        <v>3.291772033565117</v>
+        <v>3.291772033548036</v>
       </c>
       <c r="L5">
-        <v>0.9743985902598882</v>
+        <v>0.974398590260679</v>
       </c>
       <c r="M5">
-        <v>3.291772033564901</v>
+        <v>3.291772033564278</v>
       </c>
       <c r="N5">
-        <v>1.020341888835466</v>
+        <v>0.92466042172844</v>
       </c>
       <c r="O5">
-        <v>1.1000000238426</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.003960414439509</v>
+        <v>0.9246604217307598</v>
       </c>
       <c r="Q5">
-        <v>33.62863297129313</v>
+        <v>0.2765061667575254</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999763</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>147.8040385391567</v>
+        <v>-179.7234938332161</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6605,58 +6605,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6067207606382952</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.182411750626922</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3.234338695016245</v>
       </c>
       <c r="E6">
-        <v>7.005807889549085</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>36.74732561793363</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>37.34692632436104</v>
       </c>
       <c r="H6">
-        <v>6.973515607416626</v>
+        <v>6.973515607416514</v>
       </c>
       <c r="I6">
-        <v>55.58449235694467</v>
+        <v>55.58449235694481</v>
       </c>
       <c r="J6">
-        <v>0.9743985901710196</v>
+        <v>0.9743985902508525</v>
       </c>
       <c r="K6">
-        <v>3.291772033565107</v>
+        <v>3.291772033548037</v>
       </c>
       <c r="L6">
-        <v>0.9743985902598861</v>
+        <v>0.9743985902606839</v>
       </c>
       <c r="M6">
-        <v>3.291772033564892</v>
+        <v>3.291772033564274</v>
       </c>
       <c r="N6">
-        <v>1.020341888835466</v>
+        <v>0.9246604217284397</v>
       </c>
       <c r="O6">
-        <v>1.1000000238426</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.003960414439509</v>
+        <v>0.9246604217307598</v>
       </c>
       <c r="Q6">
-        <v>33.62863297129312</v>
+        <v>0.2765061667574982</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999763</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>147.8040385391567</v>
+        <v>-179.7234938332161</v>
       </c>
     </row>
   </sheetData>
@@ -6736,58 +6736,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.248639108526411</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.24863910873685</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.248639107970815</v>
       </c>
       <c r="E2">
-        <v>333.3333522405613</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>333.333352253926</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.32439447741944</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394473163435</v>
+        <v>1.32439447418605</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6350853098740159</v>
+        <v>0.6350853098347083</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853099409387</v>
+        <v>0.635085309850708</v>
       </c>
       <c r="Q2">
-        <v>59.99999999685332</v>
+        <v>-4.877403765969958E-09</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.9999999996536</v>
+        <v>179.999999996043</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6795,58 +6795,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6628240872351328</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.755252724976655</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.771153425147081</v>
       </c>
       <c r="E3">
-        <v>7.653633303811437</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>54.90892881659948</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>55.09253428707345</v>
       </c>
       <c r="H3">
-        <v>0.02718770036919746</v>
+        <v>0.02718770036915611</v>
       </c>
       <c r="I3">
-        <v>52.8716476892421</v>
+        <v>52.87164768924225</v>
       </c>
       <c r="J3">
-        <v>0.1077319053236429</v>
+        <v>0.1077319054036947</v>
       </c>
       <c r="K3">
-        <v>2.308438694643186</v>
+        <v>2.308438694626096</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125093</v>
+        <v>0.1077319054135233</v>
       </c>
       <c r="M3">
-        <v>2.30843869464287</v>
+        <v>2.308438694642237</v>
       </c>
       <c r="N3">
-        <v>1.036170808042147</v>
+        <v>0.9322749059328834</v>
       </c>
       <c r="O3">
-        <v>1.100000023842439</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.032717588269755</v>
+        <v>0.9322749059338886</v>
       </c>
       <c r="Q3">
-        <v>32.27168657246929</v>
+        <v>0.05649667791871166</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999774</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>148.0329896420457</v>
+        <v>-179.9435033220763</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6854,58 +6854,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6287218226864537</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.690912397743493</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.735009540497535</v>
       </c>
       <c r="E4">
-        <v>7.259854271468325</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>42.61898532785066</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>43.12817527264145</v>
       </c>
       <c r="H4">
-        <v>4.329027417091137</v>
+        <v>4.329027417091045</v>
       </c>
       <c r="I4">
-        <v>54.55256884783171</v>
+        <v>54.55256884783186</v>
       </c>
       <c r="J4">
-        <v>0.6277319162744488</v>
+        <v>0.6277319163543693</v>
       </c>
       <c r="K4">
-        <v>2.898438697960259</v>
+        <v>2.898438697943179</v>
       </c>
       <c r="L4">
-        <v>0.6277319163633277</v>
+        <v>0.6277319163642021</v>
       </c>
       <c r="M4">
-        <v>2.898438697960005</v>
+        <v>2.898438697959381</v>
       </c>
       <c r="N4">
-        <v>1.027008523323554</v>
+        <v>0.9277102131239966</v>
       </c>
       <c r="O4">
-        <v>1.100000023842549</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.014883215215973</v>
+        <v>0.9277102131260881</v>
       </c>
       <c r="Q4">
-        <v>33.1268115785238</v>
+        <v>0.2021272668917655</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999767</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>147.9374049578646</v>
+        <v>-179.7978727330858</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6913,58 +6913,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6067207606382948</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.182411750626919</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.234338695016242</v>
       </c>
       <c r="E5">
-        <v>7.005807889549081</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>36.7473256179336</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>37.34692632436101</v>
       </c>
       <c r="H5">
-        <v>6.973515607416611</v>
+        <v>6.973515607416503</v>
       </c>
       <c r="I5">
-        <v>55.58449235694468</v>
+        <v>55.58449235694481</v>
       </c>
       <c r="J5">
-        <v>0.9743985901710175</v>
+        <v>0.9743985902508514</v>
       </c>
       <c r="K5">
-        <v>3.291772033565117</v>
+        <v>3.291772033548036</v>
       </c>
       <c r="L5">
-        <v>0.9743985902598882</v>
+        <v>0.974398590260679</v>
       </c>
       <c r="M5">
-        <v>3.291772033564901</v>
+        <v>3.291772033564278</v>
       </c>
       <c r="N5">
-        <v>1.020341888835466</v>
+        <v>0.92466042172844</v>
       </c>
       <c r="O5">
-        <v>1.1000000238426</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.003960414439509</v>
+        <v>0.9246604217307598</v>
       </c>
       <c r="Q5">
-        <v>33.62863297129313</v>
+        <v>0.2765061667575254</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999763</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>147.8040385391567</v>
+        <v>-179.7234938332161</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6972,58 +6972,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6067207606382952</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.182411750626922</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3.234338695016245</v>
       </c>
       <c r="E6">
-        <v>7.005807889549085</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>36.74732561793363</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>37.34692632436104</v>
       </c>
       <c r="H6">
-        <v>6.973515607416626</v>
+        <v>6.973515607416514</v>
       </c>
       <c r="I6">
-        <v>55.58449235694467</v>
+        <v>55.58449235694481</v>
       </c>
       <c r="J6">
-        <v>0.9743985901710196</v>
+        <v>0.9743985902508525</v>
       </c>
       <c r="K6">
-        <v>3.291772033565107</v>
+        <v>3.291772033548037</v>
       </c>
       <c r="L6">
-        <v>0.9743985902598861</v>
+        <v>0.9743985902606839</v>
       </c>
       <c r="M6">
-        <v>3.291772033564892</v>
+        <v>3.291772033564274</v>
       </c>
       <c r="N6">
-        <v>1.020341888835466</v>
+        <v>0.9246604217284397</v>
       </c>
       <c r="O6">
-        <v>1.1000000238426</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.003960414439509</v>
+        <v>0.9246604217307598</v>
       </c>
       <c r="Q6">
-        <v>33.62863297129312</v>
+        <v>0.2765061667574982</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999763</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>147.8040385391567</v>
+        <v>-179.7234938332161</v>
       </c>
     </row>
   </sheetData>
@@ -7103,58 +7103,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.617960382473001</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.617960382593723</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.617960382231206</v>
       </c>
       <c r="E2">
-        <v>229.7713440812008</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>229.7713440888676</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.32439447741944</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394473163435</v>
+        <v>1.32439447418605</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6918398877278029</v>
+        <v>0.8378427578256962</v>
       </c>
       <c r="O2">
-        <v>1.100000023874158</v>
+        <v>0.4028253111898906</v>
       </c>
       <c r="P2">
-        <v>0.8378427578966809</v>
+        <v>0.6918398877011797</v>
       </c>
       <c r="Q2">
-        <v>40.40951795604942</v>
+        <v>8.957471693504781</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-115.8807585964592</v>
       </c>
       <c r="S2">
-        <v>128.9574716956184</v>
+        <v>160.4095179569557</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7162,58 +7162,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5144211521721499</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.169623827333658</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.312688464691717</v>
       </c>
       <c r="E3">
-        <v>5.940023813668565</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>13.50565263123376</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>15.15762076903759</v>
       </c>
       <c r="H3">
-        <v>0.02718770036919746</v>
+        <v>0.02718770036915611</v>
       </c>
       <c r="I3">
-        <v>52.8716476892421</v>
+        <v>52.87164768924225</v>
       </c>
       <c r="J3">
-        <v>0.1077319053236429</v>
+        <v>0.1077319054036947</v>
       </c>
       <c r="K3">
-        <v>2.308438694643186</v>
+        <v>2.308438694626096</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125093</v>
+        <v>0.1077319054135233</v>
       </c>
       <c r="M3">
-        <v>2.30843869464287</v>
+        <v>2.308438694642237</v>
       </c>
       <c r="N3">
-        <v>1.044645993620451</v>
+        <v>1.097956955950057</v>
       </c>
       <c r="O3">
-        <v>1.100000023842566</v>
+        <v>0.8723446855797278</v>
       </c>
       <c r="P3">
-        <v>1.05460862566259</v>
+        <v>0.9608059414399968</v>
       </c>
       <c r="Q3">
-        <v>31.15761007791376</v>
+        <v>22.95039220883865</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999747</v>
+        <v>-100.0510163396221</v>
       </c>
       <c r="S3">
-        <v>147.9584136939147</v>
+        <v>153.3588929335853</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7221,58 +7221,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4878356558151786</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.0811063111413</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.203140549618417</v>
       </c>
       <c r="E4">
-        <v>5.633040944103819</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>12.48354039520066</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.89267040390295</v>
       </c>
       <c r="H4">
-        <v>4.329027417091137</v>
+        <v>4.329027417091045</v>
       </c>
       <c r="I4">
-        <v>54.55256884783171</v>
+        <v>54.55256884783186</v>
       </c>
       <c r="J4">
-        <v>0.6277319162744488</v>
+        <v>0.6277319163543693</v>
       </c>
       <c r="K4">
-        <v>2.898438697960259</v>
+        <v>2.898438697943179</v>
       </c>
       <c r="L4">
-        <v>0.6277319163633277</v>
+        <v>0.6277319163642021</v>
       </c>
       <c r="M4">
-        <v>2.898438697960005</v>
+        <v>2.898438697959381</v>
       </c>
       <c r="N4">
-        <v>1.036031605502453</v>
+        <v>1.072930679840118</v>
       </c>
       <c r="O4">
-        <v>1.100000023842596</v>
+        <v>0.8020156209370725</v>
       </c>
       <c r="P4">
-        <v>1.040122732411645</v>
+        <v>0.9503466787071521</v>
       </c>
       <c r="Q4">
-        <v>31.81277621807776</v>
+        <v>21.65937363933008</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999739</v>
+        <v>-99.52967390015488</v>
       </c>
       <c r="S4">
-        <v>147.8257682689542</v>
+        <v>155.4443486114421</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7280,58 +7280,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4716506383830388</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.029383669213571</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.139498262840996</v>
       </c>
       <c r="E5">
-        <v>5.446152460678126</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>11.8862987703972</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>13.15779257584721</v>
       </c>
       <c r="H5">
-        <v>6.973515607416611</v>
+        <v>6.973515607416503</v>
       </c>
       <c r="I5">
-        <v>55.58449235694468</v>
+        <v>55.58449235694481</v>
       </c>
       <c r="J5">
-        <v>0.9743985901710175</v>
+        <v>0.9743985902508514</v>
       </c>
       <c r="K5">
-        <v>3.291772033565117</v>
+        <v>3.291772033548036</v>
       </c>
       <c r="L5">
-        <v>0.9743985902598882</v>
+        <v>0.974398590260679</v>
       </c>
       <c r="M5">
-        <v>3.291772033564901</v>
+        <v>3.291772033564278</v>
       </c>
       <c r="N5">
-        <v>1.030135979471449</v>
+        <v>1.058527637719332</v>
       </c>
       <c r="O5">
-        <v>1.100000023842607</v>
+        <v>0.7610792363887005</v>
       </c>
       <c r="P5">
-        <v>1.031243254471447</v>
+        <v>0.9443190052701124</v>
       </c>
       <c r="Q5">
-        <v>32.20180633173356</v>
+        <v>20.87052935980883</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999733</v>
+        <v>-99.22644568573375</v>
       </c>
       <c r="S5">
-        <v>147.7006400663207</v>
+        <v>156.6601459741473</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7339,58 +7339,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4716506383830389</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.029383669213571</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.139498262840997</v>
       </c>
       <c r="E6">
-        <v>5.446152460678128</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>11.8862987703972</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>13.15779257584721</v>
       </c>
       <c r="H6">
-        <v>6.973515607416626</v>
+        <v>6.973515607416514</v>
       </c>
       <c r="I6">
-        <v>55.58449235694467</v>
+        <v>55.58449235694481</v>
       </c>
       <c r="J6">
-        <v>0.9743985901710196</v>
+        <v>0.9743985902508525</v>
       </c>
       <c r="K6">
-        <v>3.291772033565107</v>
+        <v>3.291772033548037</v>
       </c>
       <c r="L6">
-        <v>0.9743985902598861</v>
+        <v>0.9743985902606839</v>
       </c>
       <c r="M6">
-        <v>3.291772033564892</v>
+        <v>3.291772033564274</v>
       </c>
       <c r="N6">
-        <v>1.030135979471449</v>
+        <v>1.058527637719332</v>
       </c>
       <c r="O6">
-        <v>1.100000023842607</v>
+        <v>0.7610792363887003</v>
       </c>
       <c r="P6">
-        <v>1.031243254471447</v>
+        <v>0.9443190052701121</v>
       </c>
       <c r="Q6">
-        <v>32.20180633173356</v>
+        <v>20.87052935980883</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999733</v>
+        <v>-99.22644568573376</v>
       </c>
       <c r="S6">
-        <v>147.7006400663207</v>
+        <v>156.6601459741473</v>
       </c>
     </row>
   </sheetData>
@@ -7470,58 +7470,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.617960382473001</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.617960382593723</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.617960382231206</v>
       </c>
       <c r="E2">
-        <v>229.7713440812008</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>229.7713440888676</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.32439447741944</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394473163435</v>
+        <v>1.32439447418605</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104343</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6918398877278029</v>
+        <v>0.8378427578256962</v>
       </c>
       <c r="O2">
-        <v>1.100000023874158</v>
+        <v>0.4028253111898906</v>
       </c>
       <c r="P2">
-        <v>0.8378427578966809</v>
+        <v>0.6918398877011797</v>
       </c>
       <c r="Q2">
-        <v>40.40951795604942</v>
+        <v>8.957471693504781</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-115.8807585964592</v>
       </c>
       <c r="S2">
-        <v>128.9574716956184</v>
+        <v>160.4095179569557</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7529,58 +7529,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5144211521721499</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.169623827333658</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.312688464691717</v>
       </c>
       <c r="E3">
-        <v>5.940023813668565</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>13.50565263123376</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>15.15762076903759</v>
       </c>
       <c r="H3">
-        <v>0.02718770036919746</v>
+        <v>0.02718770036915611</v>
       </c>
       <c r="I3">
-        <v>52.8716476892421</v>
+        <v>52.87164768924225</v>
       </c>
       <c r="J3">
-        <v>0.1077319053236429</v>
+        <v>0.1077319054036947</v>
       </c>
       <c r="K3">
-        <v>2.308438694643186</v>
+        <v>2.308438694626096</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125093</v>
+        <v>0.1077319054135233</v>
       </c>
       <c r="M3">
-        <v>2.30843869464287</v>
+        <v>2.308438694642237</v>
       </c>
       <c r="N3">
-        <v>1.044645993620451</v>
+        <v>1.097956955950057</v>
       </c>
       <c r="O3">
-        <v>1.100000023842566</v>
+        <v>0.8723446855797278</v>
       </c>
       <c r="P3">
-        <v>1.05460862566259</v>
+        <v>0.9608059414399968</v>
       </c>
       <c r="Q3">
-        <v>31.15761007791376</v>
+        <v>22.95039220883865</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999747</v>
+        <v>-100.0510163396221</v>
       </c>
       <c r="S3">
-        <v>147.9584136939147</v>
+        <v>153.3588929335853</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7588,58 +7588,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4878356558151786</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.0811063111413</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.203140549618417</v>
       </c>
       <c r="E4">
-        <v>5.633040944103819</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>12.48354039520066</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.89267040390295</v>
       </c>
       <c r="H4">
-        <v>4.329027417091137</v>
+        <v>4.329027417091045</v>
       </c>
       <c r="I4">
-        <v>54.55256884783171</v>
+        <v>54.55256884783186</v>
       </c>
       <c r="J4">
-        <v>0.6277319162744488</v>
+        <v>0.6277319163543693</v>
       </c>
       <c r="K4">
-        <v>2.898438697960259</v>
+        <v>2.898438697943179</v>
       </c>
       <c r="L4">
-        <v>0.6277319163633277</v>
+        <v>0.6277319163642021</v>
       </c>
       <c r="M4">
-        <v>2.898438697960005</v>
+        <v>2.898438697959381</v>
       </c>
       <c r="N4">
-        <v>1.036031605502453</v>
+        <v>1.072930679840118</v>
       </c>
       <c r="O4">
-        <v>1.100000023842596</v>
+        <v>0.8020156209370725</v>
       </c>
       <c r="P4">
-        <v>1.040122732411645</v>
+        <v>0.9503466787071521</v>
       </c>
       <c r="Q4">
-        <v>31.81277621807776</v>
+        <v>21.65937363933008</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999739</v>
+        <v>-99.52967390015488</v>
       </c>
       <c r="S4">
-        <v>147.8257682689542</v>
+        <v>155.4443486114421</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7647,58 +7647,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4716506383830388</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.029383669213571</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.139498262840996</v>
       </c>
       <c r="E5">
-        <v>5.446152460678126</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>11.8862987703972</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>13.15779257584721</v>
       </c>
       <c r="H5">
-        <v>6.973515607416611</v>
+        <v>6.973515607416503</v>
       </c>
       <c r="I5">
-        <v>55.58449235694468</v>
+        <v>55.58449235694481</v>
       </c>
       <c r="J5">
-        <v>0.9743985901710175</v>
+        <v>0.9743985902508514</v>
       </c>
       <c r="K5">
-        <v>3.291772033565117</v>
+        <v>3.291772033548036</v>
       </c>
       <c r="L5">
-        <v>0.9743985902598882</v>
+        <v>0.974398590260679</v>
       </c>
       <c r="M5">
-        <v>3.291772033564901</v>
+        <v>3.291772033564278</v>
       </c>
       <c r="N5">
-        <v>1.030135979471449</v>
+        <v>1.058527637719332</v>
       </c>
       <c r="O5">
-        <v>1.100000023842607</v>
+        <v>0.7610792363887005</v>
       </c>
       <c r="P5">
-        <v>1.031243254471447</v>
+        <v>0.9443190052701124</v>
       </c>
       <c r="Q5">
-        <v>32.20180633173356</v>
+        <v>20.87052935980883</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999733</v>
+        <v>-99.22644568573375</v>
       </c>
       <c r="S5">
-        <v>147.7006400663207</v>
+        <v>156.6601459741473</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7706,58 +7706,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4716506383830389</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.029383669213571</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.139498262840997</v>
       </c>
       <c r="E6">
-        <v>5.446152460678128</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>11.8862987703972</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>13.15779257584721</v>
       </c>
       <c r="H6">
-        <v>6.973515607416626</v>
+        <v>6.973515607416514</v>
       </c>
       <c r="I6">
-        <v>55.58449235694467</v>
+        <v>55.58449235694481</v>
       </c>
       <c r="J6">
-        <v>0.9743985901710196</v>
+        <v>0.9743985902508525</v>
       </c>
       <c r="K6">
-        <v>3.291772033565107</v>
+        <v>3.291772033548037</v>
       </c>
       <c r="L6">
-        <v>0.9743985902598861</v>
+        <v>0.9743985902606839</v>
       </c>
       <c r="M6">
-        <v>3.291772033564892</v>
+        <v>3.291772033564274</v>
       </c>
       <c r="N6">
-        <v>1.030135979471449</v>
+        <v>1.058527637719332</v>
       </c>
       <c r="O6">
-        <v>1.100000023842607</v>
+        <v>0.7610792363887003</v>
       </c>
       <c r="P6">
-        <v>1.031243254471447</v>
+        <v>0.9443190052701121</v>
       </c>
       <c r="Q6">
-        <v>32.20180633173356</v>
+        <v>20.87052935980883</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999733</v>
+        <v>-99.22644568573376</v>
       </c>
       <c r="S6">
-        <v>147.7006400663207</v>
+        <v>156.6601459741473</v>
       </c>
     </row>
   </sheetData>
@@ -7837,58 +7837,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.198911195792622</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.198911196109218</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
-        <v>266.6666760113624</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>266.666676031469</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
-        <v>1.50499372497629</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142822</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993722648798</v>
+        <v>1.504993721246239</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>1.504993720695426</v>
+        <v>1.504993720695301</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5773502691155633</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962951</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502692541779</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>59.99999999647623</v>
+        <v>-5.812888752757406E-09</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.9999999955745</v>
+        <v>179.9999999936331</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7896,58 +7896,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6001667698956769</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.129473734408753</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.144080755620347</v>
       </c>
       <c r="E3">
-        <v>6.930128923158745</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>47.68305544344766</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.85172279601911</v>
       </c>
       <c r="H3">
-        <v>0.05222143805341437</v>
+        <v>0.05222143805331292</v>
       </c>
       <c r="I3">
-        <v>52.8854954349381</v>
+        <v>52.88549543493839</v>
       </c>
       <c r="J3">
-        <v>0.1153518595185588</v>
+        <v>0.1153518594814378</v>
       </c>
       <c r="K3">
-        <v>2.416397540676098</v>
+        <v>2.41639754069322</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704514</v>
+        <v>0.1153518594714293</v>
       </c>
       <c r="M3">
-        <v>2.416397540675685</v>
+        <v>2.416397540675149</v>
       </c>
       <c r="N3">
-        <v>0.9395496491866654</v>
+        <v>0.8466811339332698</v>
       </c>
       <c r="O3">
-        <v>1.00000000000067</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.936237932435901</v>
+        <v>0.8466811339332118</v>
       </c>
       <c r="Q3">
-        <v>32.37618031355603</v>
+        <v>0.05982627485272397</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999774</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>147.9448907708882</v>
+        <v>-179.9401737252163</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7955,58 +7955,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5640092665611054</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.092708307846957</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.152651525080952</v>
       </c>
       <c r="E4">
-        <v>6.512618037489951</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>35.71151948120865</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>36.40368413333144</v>
       </c>
       <c r="H4">
-        <v>8.311109134576997</v>
+        <v>8.311109134576862</v>
       </c>
       <c r="I4">
-        <v>54.49554923126074</v>
+        <v>54.49554923126105</v>
       </c>
       <c r="J4">
-        <v>1.113751880280815</v>
+        <v>1.113751880243407</v>
       </c>
       <c r="K4">
-        <v>3.006397543745829</v>
+        <v>3.006397543762932</v>
       </c>
       <c r="L4">
-        <v>1.113751880232678</v>
+        <v>1.113751880233443</v>
       </c>
       <c r="M4">
-        <v>3.006397543745498</v>
+        <v>3.006397543745007</v>
       </c>
       <c r="N4">
-        <v>0.9330416675723027</v>
+        <v>0.842030318448669</v>
       </c>
       <c r="O4">
-        <v>1.000000000000491</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9153011977098526</v>
+        <v>0.8420303184488573</v>
       </c>
       <c r="Q4">
-        <v>33.60426597448819</v>
+        <v>0.3273031180172733</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999764</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>148.1055649583977</v>
+        <v>-179.6726968823425</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8014,58 +8014,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5366991708749396</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.575446075063281</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.644481933762514</v>
       </c>
       <c r="E5">
-        <v>6.197268215569907</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>29.73868969442301</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.53584712649779</v>
       </c>
       <c r="H5">
-        <v>13.38798040396584</v>
+        <v>13.38798040396568</v>
       </c>
       <c r="I5">
-        <v>55.48064066857618</v>
+        <v>55.48064066857648</v>
       </c>
       <c r="J5">
-        <v>1.779351894040323</v>
+        <v>1.779351894002735</v>
       </c>
       <c r="K5">
-        <v>3.399730879244087</v>
+        <v>3.399730879261183</v>
       </c>
       <c r="L5">
-        <v>1.779351893992166</v>
+        <v>1.779351893992793</v>
       </c>
       <c r="M5">
-        <v>3.399730879243824</v>
+        <v>3.399730879243327</v>
       </c>
       <c r="N5">
-        <v>0.9265715309201955</v>
+        <v>0.8386502577300845</v>
       </c>
       <c r="O5">
-        <v>1.000000000000387</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9023828002404692</v>
+        <v>0.8386502577302992</v>
       </c>
       <c r="Q5">
-        <v>34.29796760261699</v>
+        <v>0.4531365618960083</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999754</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>148.0232122979766</v>
+        <v>-179.5468634385058</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8073,58 +8073,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5366991708749395</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.575446075063279</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.644481933762513</v>
       </c>
       <c r="E6">
-        <v>6.197268215569905</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>29.73868969442299</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>30.53584712649779</v>
       </c>
       <c r="H6">
-        <v>13.38798040396584</v>
+        <v>13.38798040396567</v>
       </c>
       <c r="I6">
-        <v>55.48064066857621</v>
+        <v>55.48064066857652</v>
       </c>
       <c r="J6">
-        <v>1.779351894040319</v>
+        <v>1.779351894002739</v>
       </c>
       <c r="K6">
-        <v>3.399730879244085</v>
+        <v>3.399730879261183</v>
       </c>
       <c r="L6">
-        <v>1.779351893992166</v>
+        <v>1.779351893992792</v>
       </c>
       <c r="M6">
-        <v>3.399730879243822</v>
+        <v>3.399730879243329</v>
       </c>
       <c r="N6">
-        <v>0.9265715309201955</v>
+        <v>0.8386502577300845</v>
       </c>
       <c r="O6">
-        <v>1.000000000000387</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9023828002404692</v>
+        <v>0.838650257730299</v>
       </c>
       <c r="Q6">
-        <v>34.29796760261698</v>
+        <v>0.4531365618960122</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999754</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>148.0232122979766</v>
+        <v>-179.5468634385058</v>
       </c>
     </row>
   </sheetData>
@@ -8355,58 +8355,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.198911195792622</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.198911196109218</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
-        <v>266.6666760113624</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>266.666676031469</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
-        <v>1.50499372497629</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142822</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993722648798</v>
+        <v>1.504993721246239</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>1.504993720695426</v>
+        <v>1.504993720695301</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5773502691155633</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962951</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502692541779</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>59.99999999647623</v>
+        <v>-5.812888752757406E-09</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.9999999955745</v>
+        <v>179.9999999936331</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8414,58 +8414,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6001667698956769</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.129473734408753</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.144080755620347</v>
       </c>
       <c r="E3">
-        <v>6.930128923158745</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>47.68305544344766</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.85172279601911</v>
       </c>
       <c r="H3">
-        <v>0.05222143805341437</v>
+        <v>0.05222143805331292</v>
       </c>
       <c r="I3">
-        <v>52.8854954349381</v>
+        <v>52.88549543493839</v>
       </c>
       <c r="J3">
-        <v>0.1153518595185588</v>
+        <v>0.1153518594814378</v>
       </c>
       <c r="K3">
-        <v>2.416397540676098</v>
+        <v>2.41639754069322</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704514</v>
+        <v>0.1153518594714293</v>
       </c>
       <c r="M3">
-        <v>2.416397540675685</v>
+        <v>2.416397540675149</v>
       </c>
       <c r="N3">
-        <v>0.9395496491866654</v>
+        <v>0.8466811339332698</v>
       </c>
       <c r="O3">
-        <v>1.00000000000067</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.936237932435901</v>
+        <v>0.8466811339332118</v>
       </c>
       <c r="Q3">
-        <v>32.37618031355603</v>
+        <v>0.05982627485272397</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999774</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>147.9448907708882</v>
+        <v>-179.9401737252163</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8473,58 +8473,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5640092665611054</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.092708307846957</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.152651525080952</v>
       </c>
       <c r="E4">
-        <v>6.512618037489951</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>35.71151948120865</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>36.40368413333144</v>
       </c>
       <c r="H4">
-        <v>8.311109134576997</v>
+        <v>8.311109134576862</v>
       </c>
       <c r="I4">
-        <v>54.49554923126074</v>
+        <v>54.49554923126105</v>
       </c>
       <c r="J4">
-        <v>1.113751880280815</v>
+        <v>1.113751880243407</v>
       </c>
       <c r="K4">
-        <v>3.006397543745829</v>
+        <v>3.006397543762932</v>
       </c>
       <c r="L4">
-        <v>1.113751880232678</v>
+        <v>1.113751880233443</v>
       </c>
       <c r="M4">
-        <v>3.006397543745498</v>
+        <v>3.006397543745007</v>
       </c>
       <c r="N4">
-        <v>0.9330416675723027</v>
+        <v>0.842030318448669</v>
       </c>
       <c r="O4">
-        <v>1.000000000000491</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9153011977098526</v>
+        <v>0.8420303184488573</v>
       </c>
       <c r="Q4">
-        <v>33.60426597448819</v>
+        <v>0.3273031180172733</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999764</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>148.1055649583977</v>
+        <v>-179.6726968823425</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8532,58 +8532,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5366991708749396</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.575446075063281</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.644481933762514</v>
       </c>
       <c r="E5">
-        <v>6.197268215569907</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>29.73868969442301</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>30.53584712649779</v>
       </c>
       <c r="H5">
-        <v>13.38798040396584</v>
+        <v>13.38798040396568</v>
       </c>
       <c r="I5">
-        <v>55.48064066857618</v>
+        <v>55.48064066857648</v>
       </c>
       <c r="J5">
-        <v>1.779351894040323</v>
+        <v>1.779351894002735</v>
       </c>
       <c r="K5">
-        <v>3.399730879244087</v>
+        <v>3.399730879261183</v>
       </c>
       <c r="L5">
-        <v>1.779351893992166</v>
+        <v>1.779351893992793</v>
       </c>
       <c r="M5">
-        <v>3.399730879243824</v>
+        <v>3.399730879243327</v>
       </c>
       <c r="N5">
-        <v>0.9265715309201955</v>
+        <v>0.8386502577300845</v>
       </c>
       <c r="O5">
-        <v>1.000000000000387</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9023828002404692</v>
+        <v>0.8386502577302992</v>
       </c>
       <c r="Q5">
-        <v>34.29796760261699</v>
+        <v>0.4531365618960083</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999754</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>148.0232122979766</v>
+        <v>-179.5468634385058</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8591,58 +8591,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5366991708749395</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.575446075063279</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.644481933762513</v>
       </c>
       <c r="E6">
-        <v>6.197268215569905</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>29.73868969442299</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>30.53584712649779</v>
       </c>
       <c r="H6">
-        <v>13.38798040396584</v>
+        <v>13.38798040396567</v>
       </c>
       <c r="I6">
-        <v>55.48064066857621</v>
+        <v>55.48064066857652</v>
       </c>
       <c r="J6">
-        <v>1.779351894040319</v>
+        <v>1.779351894002739</v>
       </c>
       <c r="K6">
-        <v>3.399730879244085</v>
+        <v>3.399730879261183</v>
       </c>
       <c r="L6">
-        <v>1.779351893992166</v>
+        <v>1.779351893992792</v>
       </c>
       <c r="M6">
-        <v>3.399730879243822</v>
+        <v>3.399730879243329</v>
       </c>
       <c r="N6">
-        <v>0.9265715309201955</v>
+        <v>0.8386502577300845</v>
       </c>
       <c r="O6">
-        <v>1.000000000000387</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9023828002404692</v>
+        <v>0.838650257730299</v>
       </c>
       <c r="Q6">
-        <v>34.29796760261698</v>
+        <v>0.4531365618960122</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999754</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>148.0232122979766</v>
+        <v>-179.5468634385058</v>
       </c>
     </row>
   </sheetData>
@@ -8722,58 +8722,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.012913138756734</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.012913138951925</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.012913138593917</v>
       </c>
       <c r="E2">
-        <v>191.3456832876777</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>191.345683300074</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>191.3456832773374</v>
       </c>
       <c r="H2">
-        <v>1.50499372497629</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142822</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993722648798</v>
+        <v>1.504993721246239</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>1.504993720695426</v>
+        <v>1.504993720695301</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6184267549947471</v>
+        <v>0.7472997527192564</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908641</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
-        <v>0.7472997527351805</v>
+        <v>0.6184267550384415</v>
       </c>
       <c r="Q2">
-        <v>41.77463363119258</v>
+        <v>8.109158318802283</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-117.0248837767962</v>
       </c>
       <c r="S2">
-        <v>128.1091583196818</v>
+        <v>161.7746336318227</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8781,58 +8781,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.466188325492765</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.052697494504677</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.180992453853325</v>
       </c>
       <c r="E3">
-        <v>5.383079104326175</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12.15550363655039</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>13.63692622286268</v>
       </c>
       <c r="H3">
-        <v>0.05222143805341437</v>
+        <v>0.05222143805331292</v>
       </c>
       <c r="I3">
-        <v>52.8854954349381</v>
+        <v>52.88549543493839</v>
       </c>
       <c r="J3">
-        <v>0.1153518595185588</v>
+        <v>0.1153518594814378</v>
       </c>
       <c r="K3">
-        <v>2.416397540676098</v>
+        <v>2.41639754069322</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704514</v>
+        <v>0.1153518594714293</v>
       </c>
       <c r="M3">
-        <v>2.416397540675685</v>
+        <v>2.416397540675149</v>
       </c>
       <c r="N3">
-        <v>0.9475214714187619</v>
+        <v>0.9972557644224342</v>
       </c>
       <c r="O3">
-        <v>1.00000000000038</v>
+        <v>0.7848521014140649</v>
       </c>
       <c r="P3">
-        <v>0.9569238864575631</v>
+        <v>0.8693348989513532</v>
       </c>
       <c r="Q3">
-        <v>31.21449995361951</v>
+        <v>22.69114698921615</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999747</v>
+        <v>-100.4045966786927</v>
       </c>
       <c r="S3">
-        <v>147.8685277191759</v>
+        <v>153.5481119598529</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8840,58 +8840,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.434586486224326</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.9490931476202201</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.051156758226562</v>
       </c>
       <c r="E4">
-        <v>5.018172496155764</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10.95918368529127</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>12.13771274645199</v>
       </c>
       <c r="H4">
-        <v>8.311109134576997</v>
+        <v>8.311109134576862</v>
       </c>
       <c r="I4">
-        <v>54.49554923126074</v>
+        <v>54.49554923126105</v>
       </c>
       <c r="J4">
-        <v>1.113751880280815</v>
+        <v>1.113751880243407</v>
       </c>
       <c r="K4">
-        <v>3.006397543745829</v>
+        <v>3.006397543762932</v>
       </c>
       <c r="L4">
-        <v>1.113751880232678</v>
+        <v>1.113751880233443</v>
       </c>
       <c r="M4">
-        <v>3.006397543745498</v>
+        <v>3.006397543745007</v>
       </c>
       <c r="N4">
-        <v>0.9413996486567928</v>
+        <v>0.9578360751585654</v>
       </c>
       <c r="O4">
-        <v>1.00000000000027</v>
+        <v>0.7019303077934732</v>
       </c>
       <c r="P4">
-        <v>0.9392780664697753</v>
+        <v>0.8699692122462657</v>
       </c>
       <c r="Q4">
-        <v>32.22485107094072</v>
+        <v>21.43395682535118</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999734</v>
+        <v>-97.63434507041889</v>
       </c>
       <c r="S4">
-        <v>147.9810480345871</v>
+        <v>156.5869817588516</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8899,58 +8899,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4142522905135324</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.8903910326368715</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9777133855363679</v>
       </c>
       <c r="E5">
-        <v>4.78337342880814</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>10.28135004753853</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>11.28966172659445</v>
       </c>
       <c r="H5">
-        <v>13.38798040396584</v>
+        <v>13.38798040396568</v>
       </c>
       <c r="I5">
-        <v>55.48064066857618</v>
+        <v>55.48064066857648</v>
       </c>
       <c r="J5">
-        <v>1.779351894040323</v>
+        <v>1.779351894002735</v>
       </c>
       <c r="K5">
-        <v>3.399730879244087</v>
+        <v>3.399730879261183</v>
       </c>
       <c r="L5">
-        <v>1.779351893992166</v>
+        <v>1.779351893992793</v>
       </c>
       <c r="M5">
-        <v>3.399730879243824</v>
+        <v>3.399730879243327</v>
       </c>
       <c r="N5">
-        <v>0.9361477969994384</v>
+        <v>0.9366221555591173</v>
       </c>
       <c r="O5">
-        <v>1.000000000000211</v>
+        <v>0.6550793552709107</v>
       </c>
       <c r="P5">
-        <v>0.9284702471193655</v>
+        <v>0.8690194829182928</v>
       </c>
       <c r="Q5">
-        <v>32.80283255042304</v>
+        <v>20.59757018817725</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999726</v>
+        <v>-96.09329345652415</v>
       </c>
       <c r="S5">
-        <v>147.9397378299686</v>
+        <v>158.2605573389836</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8958,58 +8958,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4142522905135323</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.8903910326368715</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.9777133855363679</v>
       </c>
       <c r="E6">
-        <v>4.783373428808138</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10.28135004753853</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>11.28966172659445</v>
       </c>
       <c r="H6">
-        <v>13.38798040396584</v>
+        <v>13.38798040396567</v>
       </c>
       <c r="I6">
-        <v>55.48064066857621</v>
+        <v>55.48064066857652</v>
       </c>
       <c r="J6">
-        <v>1.779351894040319</v>
+        <v>1.779351894002739</v>
       </c>
       <c r="K6">
-        <v>3.399730879244085</v>
+        <v>3.399730879261183</v>
       </c>
       <c r="L6">
-        <v>1.779351893992166</v>
+        <v>1.779351893992792</v>
       </c>
       <c r="M6">
-        <v>3.399730879243822</v>
+        <v>3.399730879243329</v>
       </c>
       <c r="N6">
-        <v>0.9361477969994383</v>
+        <v>0.9366221555591173</v>
       </c>
       <c r="O6">
-        <v>1.000000000000211</v>
+        <v>0.6550793552709104</v>
       </c>
       <c r="P6">
-        <v>0.9284702471193655</v>
+        <v>0.8690194829182928</v>
       </c>
       <c r="Q6">
-        <v>32.80283255042304</v>
+        <v>20.59757018817726</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999726</v>
+        <v>-96.09329345652414</v>
       </c>
       <c r="S6">
-        <v>147.9397378299686</v>
+        <v>158.2605573389836</v>
       </c>
     </row>
   </sheetData>
@@ -9089,58 +9089,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.012913138756734</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.012913138951925</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.012913138593917</v>
       </c>
       <c r="E2">
-        <v>191.3456832876777</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>191.345683300074</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>191.3456832773374</v>
       </c>
       <c r="H2">
-        <v>1.50499372497629</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142822</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993722648798</v>
+        <v>1.504993721246239</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>1.504993720695426</v>
+        <v>1.504993720695301</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6184267549947471</v>
+        <v>0.7472997527192564</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908641</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
-        <v>0.7472997527351805</v>
+        <v>0.6184267550384415</v>
       </c>
       <c r="Q2">
-        <v>41.77463363119258</v>
+        <v>8.109158318802283</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-117.0248837767962</v>
       </c>
       <c r="S2">
-        <v>128.1091583196818</v>
+        <v>161.7746336318227</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9148,58 +9148,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.466188325492765</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.052697494504677</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.180992453853325</v>
       </c>
       <c r="E3">
-        <v>5.383079104326175</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12.15550363655039</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>13.63692622286268</v>
       </c>
       <c r="H3">
-        <v>0.05222143805341437</v>
+        <v>0.05222143805331292</v>
       </c>
       <c r="I3">
-        <v>52.8854954349381</v>
+        <v>52.88549543493839</v>
       </c>
       <c r="J3">
-        <v>0.1153518595185588</v>
+        <v>0.1153518594814378</v>
       </c>
       <c r="K3">
-        <v>2.416397540676098</v>
+        <v>2.41639754069322</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704514</v>
+        <v>0.1153518594714293</v>
       </c>
       <c r="M3">
-        <v>2.416397540675685</v>
+        <v>2.416397540675149</v>
       </c>
       <c r="N3">
-        <v>0.9475214714187619</v>
+        <v>0.9972557644224342</v>
       </c>
       <c r="O3">
-        <v>1.00000000000038</v>
+        <v>0.7848521014140649</v>
       </c>
       <c r="P3">
-        <v>0.9569238864575631</v>
+        <v>0.8693348989513532</v>
       </c>
       <c r="Q3">
-        <v>31.21449995361951</v>
+        <v>22.69114698921615</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999747</v>
+        <v>-100.4045966786927</v>
       </c>
       <c r="S3">
-        <v>147.8685277191759</v>
+        <v>153.5481119598529</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -9207,58 +9207,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.434586486224326</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.9490931476202201</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.051156758226562</v>
       </c>
       <c r="E4">
-        <v>5.018172496155764</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10.95918368529127</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>12.13771274645199</v>
       </c>
       <c r="H4">
-        <v>8.311109134576997</v>
+        <v>8.311109134576862</v>
       </c>
       <c r="I4">
-        <v>54.49554923126074</v>
+        <v>54.49554923126105</v>
       </c>
       <c r="J4">
-        <v>1.113751880280815</v>
+        <v>1.113751880243407</v>
       </c>
       <c r="K4">
-        <v>3.006397543745829</v>
+        <v>3.006397543762932</v>
       </c>
       <c r="L4">
-        <v>1.113751880232678</v>
+        <v>1.113751880233443</v>
       </c>
       <c r="M4">
-        <v>3.006397543745498</v>
+        <v>3.006397543745007</v>
       </c>
       <c r="N4">
-        <v>0.9413996486567928</v>
+        <v>0.9578360751585654</v>
       </c>
       <c r="O4">
-        <v>1.00000000000027</v>
+        <v>0.7019303077934732</v>
       </c>
       <c r="P4">
-        <v>0.9392780664697753</v>
+        <v>0.8699692122462657</v>
       </c>
       <c r="Q4">
-        <v>32.22485107094072</v>
+        <v>21.43395682535118</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999734</v>
+        <v>-97.63434507041889</v>
       </c>
       <c r="S4">
-        <v>147.9810480345871</v>
+        <v>156.5869817588516</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9266,58 +9266,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4142522905135324</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.8903910326368715</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9777133855363679</v>
       </c>
       <c r="E5">
-        <v>4.78337342880814</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>10.28135004753853</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>11.28966172659445</v>
       </c>
       <c r="H5">
-        <v>13.38798040396584</v>
+        <v>13.38798040396568</v>
       </c>
       <c r="I5">
-        <v>55.48064066857618</v>
+        <v>55.48064066857648</v>
       </c>
       <c r="J5">
-        <v>1.779351894040323</v>
+        <v>1.779351894002735</v>
       </c>
       <c r="K5">
-        <v>3.399730879244087</v>
+        <v>3.399730879261183</v>
       </c>
       <c r="L5">
-        <v>1.779351893992166</v>
+        <v>1.779351893992793</v>
       </c>
       <c r="M5">
-        <v>3.399730879243824</v>
+        <v>3.399730879243327</v>
       </c>
       <c r="N5">
-        <v>0.9361477969994384</v>
+        <v>0.9366221555591173</v>
       </c>
       <c r="O5">
-        <v>1.000000000000211</v>
+        <v>0.6550793552709107</v>
       </c>
       <c r="P5">
-        <v>0.9284702471193655</v>
+        <v>0.8690194829182928</v>
       </c>
       <c r="Q5">
-        <v>32.80283255042304</v>
+        <v>20.59757018817725</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999726</v>
+        <v>-96.09329345652415</v>
       </c>
       <c r="S5">
-        <v>147.9397378299686</v>
+        <v>158.2605573389836</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9325,58 +9325,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4142522905135323</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.8903910326368715</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.9777133855363679</v>
       </c>
       <c r="E6">
-        <v>4.783373428808138</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10.28135004753853</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>11.28966172659445</v>
       </c>
       <c r="H6">
-        <v>13.38798040396584</v>
+        <v>13.38798040396567</v>
       </c>
       <c r="I6">
-        <v>55.48064066857621</v>
+        <v>55.48064066857652</v>
       </c>
       <c r="J6">
-        <v>1.779351894040319</v>
+        <v>1.779351894002739</v>
       </c>
       <c r="K6">
-        <v>3.399730879244085</v>
+        <v>3.399730879261183</v>
       </c>
       <c r="L6">
-        <v>1.779351893992166</v>
+        <v>1.779351893992792</v>
       </c>
       <c r="M6">
-        <v>3.399730879243822</v>
+        <v>3.399730879243329</v>
       </c>
       <c r="N6">
-        <v>0.9361477969994383</v>
+        <v>0.9366221555591173</v>
       </c>
       <c r="O6">
-        <v>1.000000000000211</v>
+        <v>0.6550793552709104</v>
       </c>
       <c r="P6">
-        <v>0.9284702471193655</v>
+        <v>0.8690194829182928</v>
       </c>
       <c r="Q6">
-        <v>32.80283255042304</v>
+        <v>20.59757018817726</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999726</v>
+        <v>-96.09329345652414</v>
       </c>
       <c r="S6">
-        <v>147.9397378299686</v>
+        <v>158.2605573389836</v>
       </c>
     </row>
   </sheetData>
